--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_086.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_086.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14.34915789547251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>19.76475834939525</v>
       </c>
       <c r="E2" t="n">
-        <v>17.74662364154661</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>25.38224684289553</v>
       </c>
       <c r="H2" t="n">
-        <v>18.28624979026437</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>38.26866651485202</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>232.1600820071873</v>
+        <v>13.69865234038641</v>
       </c>
       <c r="K2" t="n">
-        <v>172.4064345311734</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.05411987667825</v>
+        <v>24.3590129328711</v>
       </c>
       <c r="M2" t="n">
-        <v>110.1899328206938</v>
+        <v>7.0389694054253</v>
       </c>
       <c r="N2" t="n">
-        <v>151.2018074533325</v>
+        <v>155.001483357155</v>
       </c>
       <c r="O2" t="n">
-        <v>135.3246205400538</v>
+        <v>37.68356381875968</v>
       </c>
       <c r="P2" t="n">
-        <v>108.8340083624581</v>
+        <v>172.7983845412587</v>
       </c>
       <c r="Q2" t="n">
-        <v>53.08184396575751</v>
+        <v>93.86087511331509</v>
       </c>
       <c r="R2" t="n">
-        <v>62.34876198054688</v>
+        <v>42.03481773883156</v>
       </c>
       <c r="S2" t="n">
-        <v>21.08308134439083</v>
+        <v>69.93410138665911</v>
       </c>
       <c r="T2" t="n">
-        <v>97.60071605988811</v>
+        <v>82.0070742765854</v>
       </c>
       <c r="U2" t="n">
-        <v>46.70547360572423</v>
+        <v>40.09159728074615</v>
       </c>
       <c r="V2" t="n">
-        <v>78.50341686951124</v>
+        <v>79.49239510431104</v>
       </c>
       <c r="W2" t="n">
-        <v>67.07949864012322</v>
+        <v>197.3560671915286</v>
       </c>
       <c r="X2" t="n">
-        <v>75.76842961374469</v>
+        <v>39.83676372731539</v>
       </c>
       <c r="Y2" t="n">
-        <v>97.29234922871261</v>
+        <v>48.61778426796513</v>
       </c>
       <c r="Z2" t="n">
-        <v>57.12779533814474</v>
+        <v>47.02860173230047</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.55919682344683</v>
+        <v>89.79388065362558</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.87298320013935</v>
+        <v>170.6316760150966</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.9700636415049</v>
+        <v>151.491978339078</v>
       </c>
       <c r="AD2" t="n">
-        <v>102.8468694973145</v>
+        <v>134.183839724253</v>
       </c>
       <c r="AE2" t="n">
-        <v>147.7272007211536</v>
+        <v>65.60810718190453</v>
       </c>
       <c r="AF2" t="n">
-        <v>130.1423461302971</v>
+        <v>143.0648746883031</v>
       </c>
       <c r="AG2" t="n">
-        <v>100.24338395366</v>
+        <v>95.49000765749906</v>
       </c>
       <c r="AH2" t="n">
-        <v>95.08813913709943</v>
+        <v>146.6780358355934</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.18331440832753</v>
+        <v>95.04569968761312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20.73471526266203</v>
+        <v>128.0541494550192</v>
       </c>
       <c r="AK2" t="n">
-        <v>45.81967966200654</v>
+        <v>39.75069114695705</v>
       </c>
       <c r="AL2" t="n">
-        <v>60.85953586379295</v>
+        <v>82.9634993762166</v>
       </c>
       <c r="AM2" t="n">
-        <v>39.4394260986171</v>
+        <v>22.86733359140315</v>
       </c>
       <c r="AN2" t="n">
-        <v>41.25442512877729</v>
+        <v>25.59680872601988</v>
       </c>
       <c r="AO2" t="n">
-        <v>37.17904206940416</v>
+        <v>35.18405251596432</v>
       </c>
       <c r="AP2" t="n">
-        <v>34.30426601844142</v>
+        <v>50.20654449839879</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23.17698969534206</v>
+        <v>8.555270793944842</v>
       </c>
       <c r="AR2" t="n">
-        <v>60.30964687516225</v>
+        <v>26.15072897177462</v>
       </c>
       <c r="AS2" t="n">
-        <v>20.53830656504032</v>
+        <v>27.14963458512803</v>
       </c>
       <c r="AT2" t="n">
-        <v>26.30778289155018</v>
+        <v>28.27287184622698</v>
       </c>
       <c r="AU2" t="n">
-        <v>11.63505994290603</v>
+        <v>22.59422362469389</v>
       </c>
       <c r="AV2" t="n">
-        <v>39.53676447847239</v>
+        <v>79.88789374458318</v>
       </c>
       <c r="AW2" t="n">
-        <v>22.52709347392053</v>
+        <v>21.89712732425221</v>
       </c>
       <c r="AX2" t="n">
-        <v>14.4091417436232</v>
+        <v>26.34594028510611</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.799527104569947</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.118588564790325</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.4020512251815012</v>
       </c>
       <c r="F3" t="n">
-        <v>1.638874029970406</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.449339310348285</v>
       </c>
       <c r="I3" t="n">
-        <v>3.944397737108022</v>
+        <v>4.716671149007463</v>
       </c>
       <c r="J3" t="n">
-        <v>11.35522524715232</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.199288765957312</v>
+        <v>5.829264091228159</v>
       </c>
       <c r="L3" t="n">
-        <v>1.675185298349667</v>
+        <v>3.976952658717969</v>
       </c>
       <c r="M3" t="n">
-        <v>4.796195532334914</v>
+        <v>6.319514760954022</v>
       </c>
       <c r="N3" t="n">
-        <v>11.04307836836672</v>
+        <v>0.1178755637851443</v>
       </c>
       <c r="O3" t="n">
-        <v>6.275643171761323</v>
+        <v>3.639721702061293</v>
       </c>
       <c r="P3" t="n">
-        <v>5.37438217485447</v>
+        <v>7.128137175772665</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.893766806473194</v>
+        <v>0.8942504245375549</v>
       </c>
       <c r="R3" t="n">
-        <v>4.998760105948678</v>
+        <v>6.22665773700388</v>
       </c>
       <c r="S3" t="n">
-        <v>4.016863907119092</v>
+        <v>3.787003952097115</v>
       </c>
       <c r="T3" t="n">
-        <v>2.770063432601182</v>
+        <v>4.524437175399334</v>
       </c>
       <c r="U3" t="n">
-        <v>5.558256706645646</v>
+        <v>3.175736423302446</v>
       </c>
       <c r="V3" t="n">
-        <v>17.58536085751895</v>
+        <v>3.994000893436541</v>
       </c>
       <c r="W3" t="n">
-        <v>4.11268216914409</v>
+        <v>5.672906049333024</v>
       </c>
       <c r="X3" t="n">
-        <v>8.01079234838633</v>
+        <v>3.478729449373918</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.376813522212515</v>
+        <v>5.338129567947964</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.962651033015327</v>
+        <v>2.05834243025277</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.037454912534916</v>
+        <v>8.162668425036214</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.869913860485247</v>
+        <v>3.609115521561243</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.237075468984425</v>
+        <v>6.574058390849705</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.824223270956812</v>
+        <v>4.916771581740825</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.298441299923885</v>
+        <v>4.958820475246899</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.5008971837458</v>
+        <v>3.532970214523429</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.170605406043201</v>
+        <v>3.301889530276453</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.934900879927222</v>
+        <v>4.895206563238224</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.767195809691749</v>
+        <v>4.920579228457044</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.232857747146284</v>
+        <v>0.8972568498702166</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>6.677536379446479</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.647578237565374</v>
+        <v>2.086448957394365</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.893366999627879</v>
+        <v>2.99319576107523</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.149171098411252</v>
+        <v>3.830467702026525</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.428830332158298</v>
+        <v>4.277976920648898</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.053306270547226</v>
+        <v>5.229901398777583</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.893783461488866</v>
+        <v>3.66852477452942</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.868813837095519</v>
+        <v>5.324124374800828</v>
       </c>
       <c r="AS3" t="n">
-        <v>5.591528526010726</v>
+        <v>3.686010323194674</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.24911915294176</v>
+        <v>2.723461427388047</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.692189180572684</v>
+        <v>4.839530840537783</v>
       </c>
       <c r="AV3" t="n">
-        <v>6.200947134747155</v>
+        <v>6.325093869053297</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.305017859742712</v>
+        <v>1.417066021777553</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>2.969233127857476</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>15.67542072654597</v>
+        <v>24.55905368882402</v>
       </c>
       <c r="D4" t="n">
-        <v>14.07532018804827</v>
+        <v>58.25039705045539</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.58708478643572</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.512408175428007</v>
+        <v>143.5210625390311</v>
       </c>
       <c r="H4" t="n">
-        <v>142.9425175748692</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.19037542120548</v>
+        <v>100.1308444756592</v>
       </c>
       <c r="J4" t="n">
-        <v>24.14946366879897</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2244973512196751</v>
+        <v>29.28690715785709</v>
       </c>
       <c r="L4" t="n">
-        <v>47.93957747112166</v>
+        <v>30.92397427828828</v>
       </c>
       <c r="M4" t="n">
-        <v>25.69624733136305</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>21.85562062244195</v>
+        <v>16.09401566791382</v>
       </c>
       <c r="O4" t="n">
-        <v>66.06448809294368</v>
+        <v>84.50642586712371</v>
       </c>
       <c r="P4" t="n">
-        <v>92.83783721869952</v>
+        <v>52.35482538380155</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.537472417735</v>
+        <v>31.71893320883937</v>
       </c>
       <c r="R4" t="n">
-        <v>77.83173525634493</v>
+        <v>31.68787203113455</v>
       </c>
       <c r="S4" t="n">
-        <v>45.742950543069</v>
+        <v>66.16778315617546</v>
       </c>
       <c r="T4" t="n">
-        <v>18.14196194131759</v>
+        <v>32.44610326533369</v>
       </c>
       <c r="U4" t="n">
-        <v>50.92726340576645</v>
+        <v>62.26946365429568</v>
       </c>
       <c r="V4" t="n">
-        <v>27.3094530203573</v>
+        <v>38.04884677408888</v>
       </c>
       <c r="W4" t="n">
-        <v>98.15952627919648</v>
+        <v>34.88988006506671</v>
       </c>
       <c r="X4" t="n">
-        <v>40.50402613758514</v>
+        <v>280.9977536714495</v>
       </c>
       <c r="Y4" t="n">
-        <v>74.91278612575019</v>
+        <v>76.84373411225631</v>
       </c>
       <c r="Z4" t="n">
-        <v>33.97139185800806</v>
+        <v>116.0192382576224</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.33628100838163</v>
+        <v>46.93040911783207</v>
       </c>
       <c r="AB4" t="n">
-        <v>40.01855932139313</v>
+        <v>67.11651662518146</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.2891575267195</v>
+        <v>140.881727288714</v>
       </c>
       <c r="AD4" t="n">
-        <v>83.69927095093195</v>
+        <v>84.74386461808461</v>
       </c>
       <c r="AE4" t="n">
-        <v>69.83308968800227</v>
+        <v>68.31379976520155</v>
       </c>
       <c r="AF4" t="n">
-        <v>88.29542615758869</v>
+        <v>20.9376592726934</v>
       </c>
       <c r="AG4" t="n">
-        <v>34.50545166260656</v>
+        <v>51.66184532996779</v>
       </c>
       <c r="AH4" t="n">
-        <v>28.28306588331196</v>
+        <v>86.80776683707532</v>
       </c>
       <c r="AI4" t="n">
-        <v>45.55971017459891</v>
+        <v>81.34298039659637</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.68430311691081</v>
+        <v>50.79957987342078</v>
       </c>
       <c r="AK4" t="n">
-        <v>52.38646556615758</v>
+        <v>110.9348666932782</v>
       </c>
       <c r="AL4" t="n">
-        <v>67.47752878386416</v>
+        <v>93.20211604869621</v>
       </c>
       <c r="AM4" t="n">
-        <v>12.27538951398101</v>
+        <v>22.84580017136624</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.9619680583867</v>
+        <v>18.62565778094119</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.14878767438177</v>
+        <v>15.51568397504655</v>
       </c>
       <c r="AP4" t="n">
-        <v>14.94618499375758</v>
+        <v>52.8793586262658</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7.0539252645194</v>
+        <v>7.772005962119758</v>
       </c>
       <c r="AR4" t="n">
-        <v>17.08845543465477</v>
+        <v>51.84803791745021</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.960294955791193</v>
+        <v>27.84660410296309</v>
       </c>
       <c r="AT4" t="n">
-        <v>15.5085107533214</v>
+        <v>6.605220970733443</v>
       </c>
       <c r="AU4" t="n">
-        <v>11.43150270436508</v>
+        <v>68.152202605121</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.2901802930333</v>
+        <v>20.75084846989459</v>
       </c>
       <c r="AW4" t="n">
-        <v>29.02421956442248</v>
+        <v>39.61948836116179</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.84473334883026</v>
+        <v>22.65021139721663</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>19.64192272641398</v>
+        <v>30.06521144599044</v>
       </c>
       <c r="D5" t="n">
-        <v>41.47709737537846</v>
+        <v>50.0898600005788</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>119.841517818621</v>
+        <v>34.93146485804992</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>108.7045752526078</v>
       </c>
       <c r="H5" t="n">
-        <v>53.01889807997951</v>
+        <v>17.13158211443966</v>
       </c>
       <c r="I5" t="n">
-        <v>3.839887446728854</v>
+        <v>33.94072515562117</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>23.82948931645695</v>
       </c>
       <c r="K5" t="n">
-        <v>48.9630933802141</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>21.73055154082611</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.251416261425085</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>97.57593028591373</v>
+        <v>35.65549635883747</v>
       </c>
       <c r="O5" t="n">
-        <v>107.9173934079699</v>
+        <v>54.44619140385907</v>
       </c>
       <c r="P5" t="n">
-        <v>92.76613209697842</v>
+        <v>61.5196618714547</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.15670327220111</v>
+        <v>96.597091499198</v>
       </c>
       <c r="R5" t="n">
-        <v>231.9512092365516</v>
+        <v>50.30674912478589</v>
       </c>
       <c r="S5" t="n">
-        <v>203.9427504149847</v>
+        <v>23.04389096194476</v>
       </c>
       <c r="T5" t="n">
-        <v>8.559745020344572</v>
+        <v>107.2613040175002</v>
       </c>
       <c r="U5" t="n">
-        <v>32.25035857965347</v>
+        <v>18.17757545534301</v>
       </c>
       <c r="V5" t="n">
-        <v>179.3454484490776</v>
+        <v>181.9466533624213</v>
       </c>
       <c r="W5" t="n">
-        <v>49.70666353982443</v>
+        <v>15.41817439584355</v>
       </c>
       <c r="X5" t="n">
-        <v>40.74576839538143</v>
+        <v>112.8859522056277</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.654874111552289</v>
+        <v>61.2637048350206</v>
       </c>
       <c r="Z5" t="n">
-        <v>31.27097071413559</v>
+        <v>59.55111483826747</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.640469383243012</v>
+        <v>19.5917005274595</v>
       </c>
       <c r="AB5" t="n">
-        <v>31.71828976943254</v>
+        <v>1.235285494114734</v>
       </c>
       <c r="AC5" t="n">
-        <v>39.08412530366546</v>
+        <v>49.32927003854878</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.13337865928285</v>
+        <v>35.04138037709055</v>
       </c>
       <c r="AE5" t="n">
-        <v>29.99471225557483</v>
+        <v>9.716095280609348</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.625732043175748</v>
+        <v>1.29859422016608</v>
       </c>
       <c r="AG5" t="n">
-        <v>33.14445129129417</v>
+        <v>2.838126287908933</v>
       </c>
       <c r="AH5" t="n">
-        <v>22.66023551612292</v>
+        <v>41.30397204887365</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.661184680542622</v>
+        <v>71.20768935061797</v>
       </c>
       <c r="AJ5" t="n">
-        <v>31.04226425309866</v>
+        <v>34.96256501975191</v>
       </c>
       <c r="AK5" t="n">
-        <v>52.85972280092313</v>
+        <v>24.73825217556623</v>
       </c>
       <c r="AL5" t="n">
-        <v>39.19452831946412</v>
+        <v>28.94027206644679</v>
       </c>
       <c r="AM5" t="n">
-        <v>46.69362283579559</v>
+        <v>22.25122756825187</v>
       </c>
       <c r="AN5" t="n">
-        <v>20.86542383122742</v>
+        <v>27.18713871589068</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.74437187929819</v>
+        <v>8.179040770097973</v>
       </c>
       <c r="AP5" t="n">
-        <v>39.10231337487972</v>
+        <v>15.31128100618723</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22.45600227242523</v>
+        <v>37.33989990977812</v>
       </c>
       <c r="AR5" t="n">
-        <v>24.21690742127622</v>
+        <v>3.778923916086956</v>
       </c>
       <c r="AS5" t="n">
-        <v>29.36277951691669</v>
+        <v>42.44289910957061</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.164303197956621</v>
+        <v>13.56761040926273</v>
       </c>
       <c r="AU5" t="n">
-        <v>15.97889362004055</v>
+        <v>30.32803183557205</v>
       </c>
       <c r="AV5" t="n">
-        <v>33.99415050330491</v>
+        <v>2.75241449473953</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.539734755020179</v>
+        <v>16.71820496549902</v>
       </c>
       <c r="AX5" t="n">
-        <v>33.82872532062231</v>
+        <v>6.888759141593201</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.90016653318244</v>
+        <v>19.59103735089835</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.497358566731791</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.33165923695472</v>
+        <v>17.85399955944866</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1469319004864253</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13.37153508587774</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>38.97525589115921</v>
+        <v>6.482647894465353</v>
       </c>
       <c r="K6" t="n">
-        <v>14.48295182780178</v>
+        <v>63.25944599161298</v>
       </c>
       <c r="L6" t="n">
-        <v>23.86553296248582</v>
+        <v>52.77376802753948</v>
       </c>
       <c r="M6" t="n">
-        <v>11.64349779274243</v>
+        <v>9.86530931678924</v>
       </c>
       <c r="N6" t="n">
-        <v>14.06707437459069</v>
+        <v>8.036946405854126</v>
       </c>
       <c r="O6" t="n">
-        <v>41.24530065029278</v>
+        <v>15.52982115782588</v>
       </c>
       <c r="P6" t="n">
-        <v>66.846200488097</v>
+        <v>12.36509334181123</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.64976712325353</v>
+        <v>10.66825546508707</v>
       </c>
       <c r="R6" t="n">
-        <v>7.461276075722031</v>
+        <v>6.401542574212918</v>
       </c>
       <c r="S6" t="n">
-        <v>29.91759607047994</v>
+        <v>32.19033131652182</v>
       </c>
       <c r="T6" t="n">
-        <v>132.404757755662</v>
+        <v>9.058124648851601</v>
       </c>
       <c r="U6" t="n">
-        <v>33.53427092067228</v>
+        <v>15.97283687740312</v>
       </c>
       <c r="V6" t="n">
-        <v>34.6424248915787</v>
+        <v>26.03202154674597</v>
       </c>
       <c r="W6" t="n">
-        <v>17.4799522729875</v>
+        <v>64.80545706110739</v>
       </c>
       <c r="X6" t="n">
-        <v>10.03590710161192</v>
+        <v>20.96367958912963</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.28719995459068</v>
+        <v>50.85158674892361</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.46990436332606</v>
+        <v>18.35299837925645</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.802202322058934</v>
+        <v>30.3218617211168</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.0229573433452</v>
+        <v>11.28527434868947</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.98738983834769</v>
+        <v>15.09058316677818</v>
       </c>
       <c r="AD6" t="n">
-        <v>21.3923083831852</v>
+        <v>8.361833893621668</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.57549756377079</v>
+        <v>7.976516419480395</v>
       </c>
       <c r="AF6" t="n">
-        <v>24.26086306318781</v>
+        <v>9.180841387488419</v>
       </c>
       <c r="AG6" t="n">
-        <v>26.26367231726871</v>
+        <v>10.9071569672551</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.877493130404863</v>
+        <v>10.31359082708301</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.029697898290816</v>
+        <v>5.037292991982581</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.094950323812868</v>
+        <v>10.72721084667402</v>
       </c>
       <c r="AK6" t="n">
-        <v>9.313472537735926</v>
+        <v>6.774252457999958</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.006248440524399</v>
+        <v>30.6602869255837</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.430342749571109</v>
+        <v>4.120400268074747</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.95796645242028</v>
+        <v>2.413411829370759</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6287628337000135</v>
+        <v>3.375404830968505</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.625650814818376</v>
+        <v>1.811918619353102</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.30059416063528</v>
+        <v>0.1711842372963202</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.982576059513325</v>
+        <v>5.652691756368502</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.413250458254267</v>
+        <v>8.995231778141493</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.220887293100453</v>
+        <v>0.03673912149217795</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.388727944355472</v>
+        <v>3.852117233929652</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.017928502228388</v>
+        <v>3.643157498682079</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.574666474900352</v>
+        <v>5.433347851830375</v>
       </c>
       <c r="AX6" t="n">
-        <v>14.0925631617605</v>
+        <v>4.93894537739031</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>19.34610126504264</v>
       </c>
       <c r="D7" t="n">
-        <v>7.544941632210652</v>
+        <v>16.33993442410913</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.04122261609336</v>
       </c>
       <c r="G7" t="n">
-        <v>14.19219875026659</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>33.75200255861073</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>48.28649774909471</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.35325391452357</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>64.95280062805364</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>37.1890551998008</v>
+        <v>6.95581072342493</v>
       </c>
       <c r="M7" t="n">
-        <v>87.84433970591441</v>
+        <v>47.28639702079847</v>
       </c>
       <c r="N7" t="n">
-        <v>13.98548714658915</v>
+        <v>11.4010010433058</v>
       </c>
       <c r="O7" t="n">
-        <v>53.74263590938275</v>
+        <v>31.08202872574287</v>
       </c>
       <c r="P7" t="n">
-        <v>28.87836313070487</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.56385038805549</v>
+        <v>8.355865264444516</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>25.75489197644377</v>
       </c>
       <c r="S7" t="n">
-        <v>48.63122352423272</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>9.028706111403393</v>
+        <v>116.0834790227619</v>
       </c>
       <c r="U7" t="n">
-        <v>31.53682502499662</v>
+        <v>40.68096887250596</v>
       </c>
       <c r="V7" t="n">
-        <v>60.49313954238451</v>
+        <v>11.18048030029789</v>
       </c>
       <c r="W7" t="n">
-        <v>11.49734317873393</v>
+        <v>49.97175296074165</v>
       </c>
       <c r="X7" t="n">
-        <v>1.35623566362464</v>
+        <v>50.77332257024771</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.1328963072032</v>
+        <v>90.42892198207518</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.299004045950358</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.815512501205703</v>
+        <v>3.437750132672829</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.50820241740401</v>
+        <v>9.74038699685749</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.183017405931141</v>
+        <v>0.5378134346786374</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.232256219270126</v>
+        <v>4.755726143828475</v>
       </c>
       <c r="AE7" t="n">
-        <v>21.37505733651822</v>
+        <v>2.245377964535048</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.742024387056318</v>
+        <v>14.1347259674283</v>
       </c>
       <c r="AG7" t="n">
-        <v>40.48484242267356</v>
+        <v>8.507025811027392</v>
       </c>
       <c r="AH7" t="n">
-        <v>29.59395853607317</v>
+        <v>18.65826889682666</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>25.60213679407515</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.6581956204593</v>
+        <v>3.429444486729149</v>
       </c>
       <c r="AL7" t="n">
-        <v>15.70909810102842</v>
+        <v>4.780707001817992</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.583364724097486</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.380620696191738</v>
+        <v>9.065630869139399</v>
       </c>
       <c r="AO7" t="n">
-        <v>17.19389059617283</v>
+        <v>5.180395643517438</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.753730699211338</v>
+        <v>22.87512430483823</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2143609651197407</v>
+        <v>0.1751337355162712</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.68596618708569</v>
+        <v>2.210258340483623</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.362312588908969</v>
+        <v>4.019685244586658</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.205013910116996</v>
+        <v>5.211120439792351</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.5483653484822277</v>
+        <v>3.929264581394813</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.892850784940583</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.29068325049494</v>
+        <v>8.493932032629658</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3340966390943</v>
+        <v>136.9697064788655</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>207.0934473590413</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>20.41636062478529</v>
+        <v>137.7701173394153</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>19.55375780023225</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7.998039820899386</v>
       </c>
       <c r="J8" t="n">
-        <v>72.05044254070151</v>
+        <v>90.4516080990448</v>
       </c>
       <c r="K8" t="n">
-        <v>12.70900565499362</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>58.25773919177121</v>
+        <v>205.8648890640599</v>
       </c>
       <c r="M8" t="n">
-        <v>29.60233596699094</v>
+        <v>65.19190963678598</v>
       </c>
       <c r="N8" t="n">
-        <v>31.41130887800132</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>77.95054859094179</v>
+        <v>45.91983257508899</v>
       </c>
       <c r="P8" t="n">
-        <v>26.07458559035067</v>
+        <v>64.92790363381303</v>
       </c>
       <c r="Q8" t="n">
-        <v>53.37219767593054</v>
+        <v>65.84166291380126</v>
       </c>
       <c r="R8" t="n">
-        <v>19.30289077297207</v>
+        <v>87.62431683522689</v>
       </c>
       <c r="S8" t="n">
-        <v>68.75193777553989</v>
+        <v>41.57038719774685</v>
       </c>
       <c r="T8" t="n">
-        <v>69.27366307543677</v>
+        <v>74.72910666183648</v>
       </c>
       <c r="U8" t="n">
-        <v>50.31952045114888</v>
+        <v>49.24565138568298</v>
       </c>
       <c r="V8" t="n">
-        <v>46.30835453266563</v>
+        <v>72.27228228034221</v>
       </c>
       <c r="W8" t="n">
-        <v>53.33982106571187</v>
+        <v>18.30229984174292</v>
       </c>
       <c r="X8" t="n">
-        <v>53.4436168017118</v>
+        <v>94.33842653994692</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.0189884522992</v>
+        <v>290.7365536609062</v>
       </c>
       <c r="Z8" t="n">
-        <v>63.95898025680381</v>
+        <v>54.891782480023</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.52878465466762</v>
+        <v>29.83348316457489</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.3949380578092</v>
+        <v>118.6195440019404</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.7254926281154</v>
+        <v>138.9469503807791</v>
       </c>
       <c r="AD8" t="n">
-        <v>86.62740238381875</v>
+        <v>59.14882205353955</v>
       </c>
       <c r="AE8" t="n">
-        <v>84.67392459380106</v>
+        <v>147.7069147941143</v>
       </c>
       <c r="AF8" t="n">
-        <v>144.1718869114727</v>
+        <v>137.361333774571</v>
       </c>
       <c r="AG8" t="n">
-        <v>99.21870473432818</v>
+        <v>121.9440958083055</v>
       </c>
       <c r="AH8" t="n">
-        <v>126.7916731111484</v>
+        <v>73.23883976128099</v>
       </c>
       <c r="AI8" t="n">
-        <v>102.2386585194691</v>
+        <v>22.546197627237</v>
       </c>
       <c r="AJ8" t="n">
-        <v>74.95192173565053</v>
+        <v>35.19799337450396</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.14335608875164</v>
+        <v>96.34809868528261</v>
       </c>
       <c r="AL8" t="n">
-        <v>38.2885253560239</v>
+        <v>92.90377728113488</v>
       </c>
       <c r="AM8" t="n">
-        <v>58.99185773679447</v>
+        <v>23.17274818353794</v>
       </c>
       <c r="AN8" t="n">
-        <v>35.63813734136403</v>
+        <v>12.34949830049158</v>
       </c>
       <c r="AO8" t="n">
-        <v>46.73121612377427</v>
+        <v>21.20258899677116</v>
       </c>
       <c r="AP8" t="n">
-        <v>21.68168166836452</v>
+        <v>23.10141898807935</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18.44983218097034</v>
+        <v>22.62423556728281</v>
       </c>
       <c r="AR8" t="n">
-        <v>25.34351953189026</v>
+        <v>44.96541693082801</v>
       </c>
       <c r="AS8" t="n">
-        <v>36.1342818449476</v>
+        <v>21.62850144079947</v>
       </c>
       <c r="AT8" t="n">
-        <v>17.83078306852618</v>
+        <v>48.87718244015476</v>
       </c>
       <c r="AU8" t="n">
-        <v>44.46767665199177</v>
+        <v>33.76331887186688</v>
       </c>
       <c r="AV8" t="n">
-        <v>22.22118605106395</v>
+        <v>33.78175906529525</v>
       </c>
       <c r="AW8" t="n">
-        <v>25.28939883998939</v>
+        <v>9.715045333141878</v>
       </c>
       <c r="AX8" t="n">
-        <v>16.09941992577953</v>
+        <v>24.87653711338891</v>
       </c>
     </row>
     <row r="9">
@@ -1757,10 +1757,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.194708996112999</v>
+        <v>5.144245075611343</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.656893988366256</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1769,136 +1769,136 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5.245222025393191</v>
       </c>
       <c r="H9" t="n">
-        <v>2.431873208297081</v>
+        <v>1.485043736099021</v>
       </c>
       <c r="I9" t="n">
-        <v>3.36389285469939</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8842866467091377</v>
+        <v>3.722224638178874</v>
       </c>
       <c r="K9" t="n">
-        <v>3.507033459512576</v>
+        <v>3.308895207894948</v>
       </c>
       <c r="L9" t="n">
-        <v>2.161452699619268</v>
+        <v>3.329866965078146</v>
       </c>
       <c r="M9" t="n">
-        <v>5.106907927849369</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.960324354753694</v>
+        <v>3.598696700133344</v>
       </c>
       <c r="O9" t="n">
-        <v>2.282213673903009</v>
+        <v>2.714100649450165</v>
       </c>
       <c r="P9" t="n">
-        <v>8.072565270513957</v>
+        <v>6.625570751271702</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.02158344703249</v>
+        <v>4.18519102525226</v>
       </c>
       <c r="R9" t="n">
-        <v>2.467784316278026</v>
+        <v>8.059711261400343</v>
       </c>
       <c r="S9" t="n">
-        <v>4.615114840670035</v>
+        <v>3.047878803460965</v>
       </c>
       <c r="T9" t="n">
-        <v>5.394471915519337</v>
+        <v>5.562914881684627</v>
       </c>
       <c r="U9" t="n">
-        <v>10.19549297847299</v>
+        <v>4.401549320280447</v>
       </c>
       <c r="V9" t="n">
-        <v>2.643496982490234</v>
+        <v>8.009341979668918</v>
       </c>
       <c r="W9" t="n">
-        <v>1.873365338144146</v>
+        <v>6.59659493411599</v>
       </c>
       <c r="X9" t="n">
-        <v>6.499396459412695</v>
+        <v>1.410934263563256</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.557403136317946</v>
+        <v>2.238592647354407</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.413058025276673</v>
+        <v>3.136515013434639</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.458322464694305</v>
+        <v>7.655925006654416</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.315467603414826</v>
+        <v>2.834453486634831</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.162085770772931</v>
+        <v>6.061715995599076</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.171185495187044</v>
+        <v>5.673522344382142</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.29239795740503</v>
+        <v>0.3308258770627965</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.572342392163603</v>
+        <v>3.67409852749968</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.106028713410009</v>
+        <v>4.216350723751033</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.063364955797908</v>
+        <v>4.41643828563329</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.286802282836847</v>
+        <v>7.362946768014702</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.837294980922124</v>
+        <v>5.48428138039599</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.099965565948627</v>
+        <v>2.111583100334375</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.367367716785612</v>
+        <v>4.355837578011562</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.647527976224136</v>
+        <v>1.337857497708151</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.307461156065321</v>
+        <v>5.255300068395292</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.107453143655977</v>
+        <v>5.504050622743232</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.690409845175174</v>
+        <v>10.94089230557729</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.892107296396089</v>
+        <v>2.602541306577627</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.925732629144441</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.495542230655476</v>
+        <v>5.617810269127453</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.063716439393347</v>
+        <v>1.80199943497941</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.552111964809418</v>
+        <v>4.99004635486415</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.635356250539025</v>
+        <v>2.759873405593882</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.616439450039874</v>
+        <v>5.159159522951922</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.056135570085483</v>
+        <v>4.154716551965635</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>65.3211620247243</v>
       </c>
       <c r="D10" t="n">
-        <v>9.256967714355849</v>
+        <v>35.70951487844741</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.09132488257908911</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>21.22977575260473</v>
+        <v>23.97252956227664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>42.95085252137413</v>
+        <v>25.00573887804423</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.407642485255348</v>
       </c>
       <c r="K10" t="n">
-        <v>107.1047091264814</v>
+        <v>68.82211175840787</v>
       </c>
       <c r="L10" t="n">
-        <v>51.10569024659668</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>92.85953710209931</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>23.00372907551232</v>
+        <v>38.00535894485739</v>
       </c>
       <c r="O10" t="n">
-        <v>97.29873563466506</v>
+        <v>65.44987275520694</v>
       </c>
       <c r="P10" t="n">
-        <v>80.37460142025208</v>
+        <v>75.04055731152657</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.9096865941223</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>63.81778073242623</v>
+        <v>21.29688195257582</v>
       </c>
       <c r="S10" t="n">
-        <v>47.22782267203947</v>
+        <v>74.8424761856931</v>
       </c>
       <c r="T10" t="n">
-        <v>84.88439889241519</v>
+        <v>59.91714722479266</v>
       </c>
       <c r="U10" t="n">
-        <v>70.62868390679921</v>
+        <v>72.66734076383091</v>
       </c>
       <c r="V10" t="n">
-        <v>57.07924190253874</v>
+        <v>88.31484100494879</v>
       </c>
       <c r="W10" t="n">
-        <v>145.6912787063934</v>
+        <v>40.45743664205979</v>
       </c>
       <c r="X10" t="n">
-        <v>59.31967753585683</v>
+        <v>34.25613806987285</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.78046814559134</v>
+        <v>62.88293199955839</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.70468246555297</v>
+        <v>73.94405587375348</v>
       </c>
       <c r="AA10" t="n">
-        <v>15.21320203178012</v>
+        <v>53.1905885913778</v>
       </c>
       <c r="AB10" t="n">
-        <v>52.29360906548277</v>
+        <v>63.07871214005308</v>
       </c>
       <c r="AC10" t="n">
-        <v>49.90814076735748</v>
+        <v>19.92054924498302</v>
       </c>
       <c r="AD10" t="n">
-        <v>133.7072521001249</v>
+        <v>42.89458617568661</v>
       </c>
       <c r="AE10" t="n">
-        <v>42.06898566850641</v>
+        <v>50.95154796948552</v>
       </c>
       <c r="AF10" t="n">
-        <v>93.52722383804753</v>
+        <v>68.80019805959903</v>
       </c>
       <c r="AG10" t="n">
-        <v>32.2183433044307</v>
+        <v>43.41883681207084</v>
       </c>
       <c r="AH10" t="n">
-        <v>40.8372352731467</v>
+        <v>52.51808081706453</v>
       </c>
       <c r="AI10" t="n">
-        <v>72.65511508730145</v>
+        <v>65.9451663067757</v>
       </c>
       <c r="AJ10" t="n">
-        <v>39.66544734654048</v>
+        <v>85.68342054461982</v>
       </c>
       <c r="AK10" t="n">
-        <v>50.45821658315811</v>
+        <v>72.01934737197564</v>
       </c>
       <c r="AL10" t="n">
-        <v>17.66992764339895</v>
+        <v>66.78061346037516</v>
       </c>
       <c r="AM10" t="n">
-        <v>24.16379163863164</v>
+        <v>15.2860299602118</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.48829353432186</v>
+        <v>13.77432886005569</v>
       </c>
       <c r="AO10" t="n">
-        <v>35.11195108039091</v>
+        <v>27.03708867513682</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.962332628406433</v>
+        <v>19.73719616361016</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18.41362902578184</v>
+        <v>16.99278838401471</v>
       </c>
       <c r="AR10" t="n">
-        <v>10.89982100080357</v>
+        <v>8.120244073549665</v>
       </c>
       <c r="AS10" t="n">
-        <v>5.804207181144017</v>
+        <v>28.90268444968246</v>
       </c>
       <c r="AT10" t="n">
-        <v>12.81758615571501</v>
+        <v>6.408574334815176</v>
       </c>
       <c r="AU10" t="n">
-        <v>12.16790779233693</v>
+        <v>12.43413138714759</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.21377119746965</v>
+        <v>33.65033670052485</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.302496984137855</v>
+        <v>29.8913632846553</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.974384760342135</v>
+        <v>8.495253288280136</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>3.529956975590415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>24.61854140589693</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5.765907868581277</v>
       </c>
       <c r="F11" t="n">
-        <v>7.633480939583849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>24.82651929706914</v>
       </c>
       <c r="H11" t="n">
-        <v>95.92650090553629</v>
+        <v>22.58000494979265</v>
       </c>
       <c r="I11" t="n">
-        <v>31.21415775464921</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>121.9448708132561</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>77.95108533427108</v>
+        <v>37.12853694540645</v>
       </c>
       <c r="L11" t="n">
-        <v>44.05744060586752</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.106332365770596</v>
+        <v>42.71902021729919</v>
       </c>
       <c r="N11" t="n">
-        <v>57.30749251294542</v>
+        <v>41.79831918830469</v>
       </c>
       <c r="O11" t="n">
-        <v>82.24489776230246</v>
+        <v>4.718751414562279</v>
       </c>
       <c r="P11" t="n">
-        <v>24.05232719688322</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.66490101835633</v>
       </c>
       <c r="R11" t="n">
-        <v>27.7795838575557</v>
+        <v>197.3679095178224</v>
       </c>
       <c r="S11" t="n">
-        <v>68.74944995259892</v>
+        <v>203.6687540629798</v>
       </c>
       <c r="T11" t="n">
-        <v>51.29312178578653</v>
+        <v>31.89861310310841</v>
       </c>
       <c r="U11" t="n">
-        <v>18.9624338425374</v>
+        <v>12.03459917110487</v>
       </c>
       <c r="V11" t="n">
-        <v>28.10601269758629</v>
+        <v>47.83245450340012</v>
       </c>
       <c r="W11" t="n">
-        <v>56.69366963628458</v>
+        <v>25.69871508664362</v>
       </c>
       <c r="X11" t="n">
-        <v>9.908279601379153</v>
+        <v>64.08769456924973</v>
       </c>
       <c r="Y11" t="n">
-        <v>60.90904211482827</v>
+        <v>78.76649038782209</v>
       </c>
       <c r="Z11" t="n">
-        <v>48.7416363854482</v>
+        <v>95.71205303397093</v>
       </c>
       <c r="AA11" t="n">
-        <v>25.88028659202361</v>
+        <v>16.64022767379915</v>
       </c>
       <c r="AB11" t="n">
-        <v>46.43241694969107</v>
+        <v>32.47904236343186</v>
       </c>
       <c r="AC11" t="n">
-        <v>44.7069147189943</v>
+        <v>110.3553930769927</v>
       </c>
       <c r="AD11" t="n">
-        <v>38.78572501594921</v>
+        <v>48.51169795636736</v>
       </c>
       <c r="AE11" t="n">
-        <v>31.36269545198257</v>
+        <v>6.354439903176855</v>
       </c>
       <c r="AF11" t="n">
-        <v>41.92303243856328</v>
+        <v>22.46224824035981</v>
       </c>
       <c r="AG11" t="n">
-        <v>44.62723761516371</v>
+        <v>48.50409394820934</v>
       </c>
       <c r="AH11" t="n">
-        <v>48.33566113292189</v>
+        <v>8.894544442307069</v>
       </c>
       <c r="AI11" t="n">
-        <v>23.79081020538867</v>
+        <v>33.68643756571264</v>
       </c>
       <c r="AJ11" t="n">
-        <v>39.67000880557671</v>
+        <v>76.99151956650722</v>
       </c>
       <c r="AK11" t="n">
-        <v>21.05515371210144</v>
+        <v>53.96487325938114</v>
       </c>
       <c r="AL11" t="n">
-        <v>27.79530404351708</v>
+        <v>20.39836305591672</v>
       </c>
       <c r="AM11" t="n">
-        <v>4.090553691111921</v>
+        <v>22.30150249371782</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.93532541532661</v>
+        <v>17.97313995493136</v>
       </c>
       <c r="AO11" t="n">
-        <v>17.34552570079021</v>
+        <v>20.3816102734124</v>
       </c>
       <c r="AP11" t="n">
-        <v>14.22323464587953</v>
+        <v>30.42228050431279</v>
       </c>
       <c r="AQ11" t="n">
-        <v>31.49226918941753</v>
+        <v>7.674197091730522</v>
       </c>
       <c r="AR11" t="n">
-        <v>17.79401231656244</v>
+        <v>26.98127634064767</v>
       </c>
       <c r="AS11" t="n">
-        <v>26.45637980103677</v>
+        <v>52.96571127462455</v>
       </c>
       <c r="AT11" t="n">
-        <v>6.808153967746137</v>
+        <v>17.03909622103787</v>
       </c>
       <c r="AU11" t="n">
-        <v>18.96945518912522</v>
+        <v>13.88576391305277</v>
       </c>
       <c r="AV11" t="n">
-        <v>23.64054319454178</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>16.72782932943273</v>
+        <v>8.50097807385276</v>
       </c>
       <c r="AX11" t="n">
-        <v>23.77577098068798</v>
+        <v>37.34306650515118</v>
       </c>
     </row>
     <row r="12">
@@ -2216,145 +2216,145 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.043764224165486</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>18.02500275408839</v>
       </c>
       <c r="F12" t="n">
-        <v>11.29626961849949</v>
+        <v>34.19442519263411</v>
       </c>
       <c r="G12" t="n">
-        <v>4.507619425963859</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>55.89729042550091</v>
+        <v>12.629437348328</v>
       </c>
       <c r="I12" t="n">
-        <v>13.2471033433881</v>
+        <v>37.07713441216165</v>
       </c>
       <c r="J12" t="n">
-        <v>19.94208185206086</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.445706088647927</v>
       </c>
       <c r="L12" t="n">
-        <v>11.84015044919248</v>
+        <v>15.69347688959063</v>
       </c>
       <c r="M12" t="n">
-        <v>12.90663003965774</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>32.52938863082918</v>
+        <v>13.58524078964424</v>
       </c>
       <c r="O12" t="n">
-        <v>29.20502913070725</v>
+        <v>8.000480825932511</v>
       </c>
       <c r="P12" t="n">
-        <v>13.72513261105468</v>
+        <v>35.8464593510633</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.49330860604098</v>
+        <v>30.6412241755909</v>
       </c>
       <c r="R12" t="n">
-        <v>33.71491687374355</v>
+        <v>16.28949736540212</v>
       </c>
       <c r="S12" t="n">
-        <v>44.71215037928211</v>
+        <v>2.627173870222915</v>
       </c>
       <c r="T12" t="n">
-        <v>58.14674261038347</v>
+        <v>57.40223699772304</v>
       </c>
       <c r="U12" t="n">
-        <v>28.54428581132512</v>
+        <v>16.4836002243896</v>
       </c>
       <c r="V12" t="n">
-        <v>17.95789122739044</v>
+        <v>15.28607282871623</v>
       </c>
       <c r="W12" t="n">
-        <v>19.02795416390243</v>
+        <v>12.16245388559204</v>
       </c>
       <c r="X12" t="n">
-        <v>24.8935773049648</v>
+        <v>19.51040578171811</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.15083191823006</v>
+        <v>24.7138655188682</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.99377142517603</v>
+        <v>27.71729228856222</v>
       </c>
       <c r="AA12" t="n">
-        <v>26.90612726341428</v>
+        <v>15.7004896368247</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.22816381536945</v>
+        <v>4.139124981731614</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.10094841031183</v>
+        <v>29.82953345405515</v>
       </c>
       <c r="AD12" t="n">
-        <v>49.95501030582717</v>
+        <v>14.76693244470441</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.387476487524</v>
+        <v>12.61886653105102</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.91464025709145</v>
+        <v>15.27479789163044</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.662938418177704</v>
+        <v>7.344455663971138</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.37759044083391</v>
+        <v>12.42058967210269</v>
       </c>
       <c r="AI12" t="n">
-        <v>15.04866003037124</v>
+        <v>6.003556470577939</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22.04782211322454</v>
+        <v>9.658236331049682</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.9138241021247384</v>
+        <v>8.978367098650628</v>
       </c>
       <c r="AL12" t="n">
-        <v>4.338663651605584</v>
+        <v>15.58946561430574</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.640774316884235</v>
+        <v>1.253335566303238</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.811312206278606</v>
+        <v>2.752961970342378</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.330848366272559</v>
+        <v>2.199195139364428</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.952561348279653</v>
+        <v>11.3354851870495</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5155883852080297</v>
+        <v>0.2880024172729391</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.407390952104409</v>
+        <v>7.257806539275256</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.671954516717856</v>
+        <v>1.319287195559254</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38421637953706</v>
+        <v>11.87004142179552</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.233846773705674</v>
+        <v>0.07507497658246343</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.719538724162099</v>
+        <v>2.716031270036701</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.249260795362262</v>
+        <v>2.400206859301098</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.987590485077983</v>
+        <v>0.2119473026340687</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.627667869450943</v>
       </c>
       <c r="D13" t="n">
-        <v>12.63536914377073</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5.12476018621222</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.39212177356872</v>
+        <v>2.154088474202408</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>58.63736242720714</v>
       </c>
       <c r="I13" t="n">
-        <v>15.7835651238763</v>
+        <v>1.719685068103773</v>
       </c>
       <c r="J13" t="n">
-        <v>17.97138058074766</v>
+        <v>23.3817674397188</v>
       </c>
       <c r="K13" t="n">
-        <v>48.99874846580242</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.98691496123367</v>
+        <v>70.00650085079775</v>
       </c>
       <c r="M13" t="n">
-        <v>62.51782780829163</v>
+        <v>41.04374960394588</v>
       </c>
       <c r="N13" t="n">
-        <v>19.90477808672532</v>
+        <v>13.48351858070454</v>
       </c>
       <c r="O13" t="n">
-        <v>46.94820120793638</v>
+        <v>42.19980961250083</v>
       </c>
       <c r="P13" t="n">
-        <v>5.537008867228284</v>
+        <v>28.20750414353289</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.58737213815029</v>
+        <v>38.22056161361905</v>
       </c>
       <c r="R13" t="n">
-        <v>35.65532232567008</v>
+        <v>21.22744661112372</v>
       </c>
       <c r="S13" t="n">
-        <v>49.45118133176521</v>
+        <v>42.04840833006892</v>
       </c>
       <c r="T13" t="n">
-        <v>14.6803258766489</v>
+        <v>21.39371189667953</v>
       </c>
       <c r="U13" t="n">
-        <v>22.93160848768979</v>
+        <v>4.335975932995941</v>
       </c>
       <c r="V13" t="n">
-        <v>6.124955914984607</v>
+        <v>18.49866979370551</v>
       </c>
       <c r="W13" t="n">
-        <v>4.451481074730344</v>
+        <v>31.94656211560914</v>
       </c>
       <c r="X13" t="n">
-        <v>32.86837668600432</v>
+        <v>13.79322013255902</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.20852830833007</v>
+        <v>40.82348491884019</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.895014020573517</v>
+        <v>51.5014405921379</v>
       </c>
       <c r="AA13" t="n">
-        <v>23.68103670275295</v>
+        <v>26.1516003427327</v>
       </c>
       <c r="AB13" t="n">
-        <v>29.10954710711855</v>
+        <v>10.97592461591019</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.87067063333019</v>
+        <v>2.437606619720905</v>
       </c>
       <c r="AD13" t="n">
-        <v>22.1370200198304</v>
+        <v>1.77797117533565</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.72572833974862</v>
+        <v>6.900788799716489</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.109528272005269</v>
+        <v>19.94094781184777</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.72002270873751</v>
+        <v>7.344024680982098</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.34438599370686</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>28.61983472710715</v>
+        <v>13.25331291772179</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21.69821170368265</v>
+        <v>15.65630190132869</v>
       </c>
       <c r="AK13" t="n">
-        <v>40.59514599020693</v>
+        <v>14.46262729953642</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.644105683250775</v>
+        <v>52.09069327391573</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.447446272296963</v>
+        <v>15.58764289782347</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.899725652317425</v>
+        <v>21.36822777831735</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.4115437340868926</v>
+        <v>5.86497885784714</v>
       </c>
       <c r="AP13" t="n">
-        <v>8.600450124377705</v>
+        <v>7.617426759096408</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.161884553980201</v>
+        <v>5.406870626090758</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.847420331398333</v>
+        <v>18.48519454466504</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.033690184815729</v>
+        <v>4.188441699723779</v>
       </c>
       <c r="AT13" t="n">
-        <v>21.10256385659973</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.098516703774227</v>
+        <v>18.01827909344563</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.559034553628111</v>
+        <v>1.560028269415427</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.5425504777780134</v>
+        <v>9.702792411860084</v>
       </c>
       <c r="AX13" t="n">
-        <v>10.83520507022093</v>
+        <v>0.6186411591203183</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>33.2622826142151</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>20.04532333084295</v>
+        <v>15.85468342998798</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14.04624658197356</v>
+        <v>24.84744188353019</v>
       </c>
       <c r="G14" t="n">
-        <v>24.70111867860551</v>
+        <v>30.44973077575946</v>
       </c>
       <c r="H14" t="n">
-        <v>33.2128955695626</v>
+        <v>30.3688180471688</v>
       </c>
       <c r="I14" t="n">
-        <v>3.79333042377761</v>
+        <v>7.367225037369408</v>
       </c>
       <c r="J14" t="n">
-        <v>150.6085927655966</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>98.35741852143569</v>
+        <v>7.31345190159198</v>
       </c>
       <c r="L14" t="n">
-        <v>110.3328880873556</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>34.18950726314827</v>
+        <v>221.4058147955647</v>
       </c>
       <c r="N14" t="n">
-        <v>207.6765176572417</v>
+        <v>24.3957560151594</v>
       </c>
       <c r="O14" t="n">
-        <v>132.604905765795</v>
+        <v>48.46237294553514</v>
       </c>
       <c r="P14" t="n">
-        <v>56.20422807438462</v>
+        <v>123.5042504967315</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.3701913487924</v>
+        <v>103.3131186529875</v>
       </c>
       <c r="R14" t="n">
-        <v>64.48200996627386</v>
+        <v>113.260584668711</v>
       </c>
       <c r="S14" t="n">
-        <v>60.45585543392446</v>
+        <v>87.15381396688373</v>
       </c>
       <c r="T14" t="n">
-        <v>248.079217395208</v>
+        <v>81.6797670973955</v>
       </c>
       <c r="U14" t="n">
-        <v>45.01372502830594</v>
+        <v>83.78214439840816</v>
       </c>
       <c r="V14" t="n">
-        <v>126.1228713594167</v>
+        <v>20.39444594131695</v>
       </c>
       <c r="W14" t="n">
-        <v>59.36362658302036</v>
+        <v>32.83362064494027</v>
       </c>
       <c r="X14" t="n">
-        <v>31.50472552672972</v>
+        <v>48.78749301170136</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.75542845370961</v>
+        <v>51.84845907533677</v>
       </c>
       <c r="Z14" t="n">
-        <v>75.45240229956806</v>
+        <v>121.5819416538739</v>
       </c>
       <c r="AA14" t="n">
-        <v>101.4877952496717</v>
+        <v>53.20527028437598</v>
       </c>
       <c r="AB14" t="n">
-        <v>89.0181908736017</v>
+        <v>70.82004869337999</v>
       </c>
       <c r="AC14" t="n">
-        <v>111.8069802915513</v>
+        <v>111.6772567926011</v>
       </c>
       <c r="AD14" t="n">
-        <v>153.2904337183423</v>
+        <v>62.99920662552683</v>
       </c>
       <c r="AE14" t="n">
-        <v>184.1065502319922</v>
+        <v>91.48207516760841</v>
       </c>
       <c r="AF14" t="n">
-        <v>84.56383774003072</v>
+        <v>95.39392449973711</v>
       </c>
       <c r="AG14" t="n">
-        <v>124.4868025724842</v>
+        <v>41.82188995217952</v>
       </c>
       <c r="AH14" t="n">
-        <v>147.3208641456513</v>
+        <v>91.84868439334872</v>
       </c>
       <c r="AI14" t="n">
-        <v>123.3552977007247</v>
+        <v>69.10998360119515</v>
       </c>
       <c r="AJ14" t="n">
-        <v>87.26569118956192</v>
+        <v>84.31031812027675</v>
       </c>
       <c r="AK14" t="n">
-        <v>57.92054663009563</v>
+        <v>68.92950454402424</v>
       </c>
       <c r="AL14" t="n">
-        <v>92.86526809236467</v>
+        <v>140.6213329068257</v>
       </c>
       <c r="AM14" t="n">
-        <v>73.39075698086474</v>
+        <v>22.85574555603849</v>
       </c>
       <c r="AN14" t="n">
-        <v>34.76756527795623</v>
+        <v>86.50228045916178</v>
       </c>
       <c r="AO14" t="n">
-        <v>42.61212359711639</v>
+        <v>6.028235674532697</v>
       </c>
       <c r="AP14" t="n">
-        <v>27.2787919865337</v>
+        <v>66.99352328431033</v>
       </c>
       <c r="AQ14" t="n">
-        <v>31.01367390200335</v>
+        <v>80.10781064009808</v>
       </c>
       <c r="AR14" t="n">
-        <v>37.91406900710075</v>
+        <v>9.132204083962792</v>
       </c>
       <c r="AS14" t="n">
-        <v>20.33997586754176</v>
+        <v>29.87267154431602</v>
       </c>
       <c r="AT14" t="n">
-        <v>17.36267752738345</v>
+        <v>28.91488244720865</v>
       </c>
       <c r="AU14" t="n">
-        <v>18.33160643363381</v>
+        <v>66.11111346303606</v>
       </c>
       <c r="AV14" t="n">
-        <v>34.49499637528957</v>
+        <v>40.47112455094621</v>
       </c>
       <c r="AW14" t="n">
-        <v>23.89041513253385</v>
+        <v>18.51516563209163</v>
       </c>
       <c r="AX14" t="n">
-        <v>25.98936259660197</v>
+        <v>27.52245058721993</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.458800771452</v>
+        <v>1.386327470091554</v>
       </c>
       <c r="D15" t="n">
-        <v>2.349951301823579</v>
+        <v>2.169687097287254</v>
       </c>
       <c r="E15" t="n">
-        <v>1.72002265517055</v>
+        <v>1.088950547765023</v>
       </c>
       <c r="F15" t="n">
-        <v>3.103115559895898</v>
+        <v>3.078389596859281</v>
       </c>
       <c r="G15" t="n">
-        <v>2.567149584764976</v>
+        <v>3.08540096664253</v>
       </c>
       <c r="H15" t="n">
-        <v>1.33643407901065</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.552259341202821</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.626244909811828</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.263364753498271</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.124828433338135</v>
+        <v>0.750218963261848</v>
       </c>
       <c r="M15" t="n">
-        <v>3.395728887988936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6.08173909060448</v>
+        <v>7.085349195905433</v>
       </c>
       <c r="O15" t="n">
-        <v>3.765688408394575</v>
+        <v>5.114296191472905</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8829070960962575</v>
+        <v>1.363380241806102</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.3177485333455</v>
+        <v>5.975491484611807</v>
       </c>
       <c r="R15" t="n">
-        <v>4.89396574261354</v>
+        <v>2.652423004436117</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>10.17528387679915</v>
       </c>
       <c r="T15" t="n">
-        <v>4.311659955331893</v>
+        <v>4.343688943650793</v>
       </c>
       <c r="U15" t="n">
-        <v>4.544812207110001</v>
+        <v>6.716438997595126</v>
       </c>
       <c r="V15" t="n">
-        <v>3.742301582996343</v>
+        <v>9.666835769360954</v>
       </c>
       <c r="W15" t="n">
-        <v>4.240708264838525</v>
+        <v>6.538576633723594</v>
       </c>
       <c r="X15" t="n">
-        <v>6.086301626679719</v>
+        <v>2.89106403913555</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.682061906306568</v>
+        <v>3.961252196170492</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.000607259597151</v>
+        <v>8.560268309029173</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.892565519395745</v>
+        <v>6.8291193155884</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.415631418136269</v>
+        <v>5.666355100638845</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.598764298537155</v>
+        <v>5.573895991147466</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.992446422099888</v>
+        <v>5.737753886226463</v>
       </c>
       <c r="AE15" t="n">
-        <v>13.24068032687954</v>
+        <v>6.393261212485273</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.344978685167535</v>
+        <v>7.317472644326413</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.18983406005836</v>
+        <v>4.55008381977922</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.926798958367886</v>
+        <v>4.761231243830081</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.034451293861442</v>
+        <v>4.358591703050803</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.56724721622061</v>
+        <v>3.52336639194532</v>
       </c>
       <c r="AK15" t="n">
-        <v>7.137032432321204</v>
+        <v>5.209198630679474</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.363897818006109</v>
+        <v>2.923364440128107</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.301544309259316</v>
+        <v>4.675426256081364</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.40975683300189</v>
+        <v>4.4507489358177</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.071335241513681</v>
+        <v>2.9054736123892</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.718628082326271</v>
+        <v>3.704937344310161</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.800899597432808</v>
+        <v>7.913896598689278</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.480262820144174</v>
+        <v>2.494653334843682</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.301698586110008</v>
+        <v>1.190601188550123</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.706992315834569</v>
+        <v>2.509609386130757</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.928027570904537</v>
+        <v>3.607410454456475</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.741344537301656</v>
+        <v>2.778111481340008</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.5199869379920566</v>
+        <v>4.693236660789465</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.169371291526272</v>
+        <v>0.1777782910749368</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8.451310796231372</v>
+        <v>3.364293471697239</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>13.79874504437025</v>
+        <v>351.9531443896856</v>
       </c>
       <c r="F16" t="n">
-        <v>4.155337249615944</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>26.97082915729192</v>
       </c>
       <c r="H16" t="n">
-        <v>8.454099806773378</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.5758464659948253</v>
       </c>
       <c r="J16" t="n">
-        <v>27.95579170594836</v>
+        <v>3.613027186698281</v>
       </c>
       <c r="K16" t="n">
-        <v>78.2840002400974</v>
+        <v>11.64449944256042</v>
       </c>
       <c r="L16" t="n">
-        <v>166.9396574265328</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>43.18625846397688</v>
+        <v>153.5961960079987</v>
       </c>
       <c r="N16" t="n">
-        <v>92.02469074966183</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>16.04449396387756</v>
+        <v>99.55974319777631</v>
       </c>
       <c r="P16" t="n">
-        <v>78.70291573051179</v>
+        <v>24.46896002718235</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>98.51124027391901</v>
       </c>
       <c r="R16" t="n">
-        <v>209.9667642383588</v>
+        <v>78.73594360953071</v>
       </c>
       <c r="S16" t="n">
-        <v>51.9602015459225</v>
+        <v>41.98506273934886</v>
       </c>
       <c r="T16" t="n">
-        <v>43.32864021197072</v>
+        <v>272.9888394931702</v>
       </c>
       <c r="U16" t="n">
-        <v>116.1453453186478</v>
+        <v>23.12710710440731</v>
       </c>
       <c r="V16" t="n">
-        <v>121.4648650993201</v>
+        <v>51.48581056882175</v>
       </c>
       <c r="W16" t="n">
-        <v>42.63027139574888</v>
+        <v>26.46145691450332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.20322640044254</v>
+        <v>56.594532994315</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.51172140826328</v>
+        <v>86.76659636212183</v>
       </c>
       <c r="Z16" t="n">
-        <v>52.78048191184347</v>
+        <v>121.9494719575626</v>
       </c>
       <c r="AA16" t="n">
-        <v>75.95218864676742</v>
+        <v>36.58804129331807</v>
       </c>
       <c r="AB16" t="n">
-        <v>153.6980386937898</v>
+        <v>42.87519570202544</v>
       </c>
       <c r="AC16" t="n">
-        <v>78.41977104463113</v>
+        <v>103.2255287916134</v>
       </c>
       <c r="AD16" t="n">
-        <v>198.939190561118</v>
+        <v>66.47754592860986</v>
       </c>
       <c r="AE16" t="n">
-        <v>121.0173355577559</v>
+        <v>79.21170847497649</v>
       </c>
       <c r="AF16" t="n">
-        <v>41.73003242330905</v>
+        <v>74.4907840585977</v>
       </c>
       <c r="AG16" t="n">
-        <v>128.247589374417</v>
+        <v>49.75831307167685</v>
       </c>
       <c r="AH16" t="n">
-        <v>44.8710019800089</v>
+        <v>40.19349558807704</v>
       </c>
       <c r="AI16" t="n">
-        <v>19.77987655348045</v>
+        <v>30.77131855898353</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23.33511856609007</v>
+        <v>89.48765161941846</v>
       </c>
       <c r="AK16" t="n">
-        <v>72.77862840841055</v>
+        <v>53.73947031357815</v>
       </c>
       <c r="AL16" t="n">
-        <v>13.09550437299515</v>
+        <v>28.67283425738992</v>
       </c>
       <c r="AM16" t="n">
-        <v>18.37784299811529</v>
+        <v>40.72783890535181</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.785963614326707</v>
+        <v>16.17341600126876</v>
       </c>
       <c r="AO16" t="n">
-        <v>36.36204529320771</v>
+        <v>14.66640891640434</v>
       </c>
       <c r="AP16" t="n">
-        <v>11.90139509907048</v>
+        <v>24.8619875083336</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26.74042087695915</v>
+        <v>33.88805130852175</v>
       </c>
       <c r="AR16" t="n">
-        <v>13.41042315526182</v>
+        <v>9.767357160823122</v>
       </c>
       <c r="AS16" t="n">
-        <v>10.76087687990291</v>
+        <v>25.66684271777652</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.528225686664827</v>
+        <v>16.71805572888766</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.195686537847653</v>
+        <v>25.813275999496</v>
       </c>
       <c r="AV16" t="n">
-        <v>10.15306827004223</v>
+        <v>10.45245137496772</v>
       </c>
       <c r="AW16" t="n">
-        <v>28.34770595275642</v>
+        <v>8.700149663476456</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.555247073020936</v>
+        <v>16.23033580528253</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>16.47985565313709</v>
       </c>
       <c r="D17" t="n">
-        <v>35.40243495183107</v>
+        <v>53.4846133585995</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>27.32836405616493</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>43.35225789147997</v>
       </c>
       <c r="G17" t="n">
-        <v>20.97727094760052</v>
+        <v>25.60323041694646</v>
       </c>
       <c r="H17" t="n">
-        <v>23.82687471673408</v>
+        <v>63.95708725770209</v>
       </c>
       <c r="I17" t="n">
-        <v>12.67702862307124</v>
+        <v>14.51506693585232</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1927602313291743</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>96.59316665504616</v>
+        <v>148.8230945779325</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>24.81713649048618</v>
       </c>
       <c r="M17" t="n">
-        <v>47.77907711378627</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>80.75823146024749</v>
+        <v>51.35602505149538</v>
       </c>
       <c r="O17" t="n">
-        <v>165.7406768864388</v>
+        <v>18.04827087335772</v>
       </c>
       <c r="P17" t="n">
-        <v>116.8691604142917</v>
+        <v>77.71526693560229</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.64252398919146</v>
+        <v>186.2181315107116</v>
       </c>
       <c r="R17" t="n">
-        <v>46.64604922829512</v>
+        <v>8.820616161786866</v>
       </c>
       <c r="S17" t="n">
-        <v>82.07689818662894</v>
+        <v>29.41993480338773</v>
       </c>
       <c r="T17" t="n">
-        <v>34.94873502505368</v>
+        <v>67.85253114645823</v>
       </c>
       <c r="U17" t="n">
-        <v>11.6362352497553</v>
+        <v>27.22539128008834</v>
       </c>
       <c r="V17" t="n">
-        <v>33.84395514879475</v>
+        <v>23.10944521332045</v>
       </c>
       <c r="W17" t="n">
-        <v>62.75331404043013</v>
+        <v>19.1193069156709</v>
       </c>
       <c r="X17" t="n">
-        <v>31.24523917730097</v>
+        <v>73.20333565346093</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.9108563816099</v>
+        <v>59.86616988805267</v>
       </c>
       <c r="Z17" t="n">
-        <v>40.44473315114855</v>
+        <v>53.34571707656514</v>
       </c>
       <c r="AA17" t="n">
-        <v>34.40062808089787</v>
+        <v>36.11453155842727</v>
       </c>
       <c r="AB17" t="n">
-        <v>45.60476716328793</v>
+        <v>4.970466247952158</v>
       </c>
       <c r="AC17" t="n">
-        <v>42.59408104521653</v>
+        <v>30.45350360652458</v>
       </c>
       <c r="AD17" t="n">
-        <v>48.65720425264423</v>
+        <v>1.019553044961081</v>
       </c>
       <c r="AE17" t="n">
-        <v>74.27179257063342</v>
+        <v>50.45618261515005</v>
       </c>
       <c r="AF17" t="n">
-        <v>18.85812268474551</v>
+        <v>33.48395892143208</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.550809424328023</v>
+        <v>62.20071451426281</v>
       </c>
       <c r="AH17" t="n">
-        <v>31.96731451175163</v>
+        <v>50.31037604742031</v>
       </c>
       <c r="AI17" t="n">
-        <v>13.56692943079701</v>
+        <v>49.23659345579517</v>
       </c>
       <c r="AJ17" t="n">
-        <v>46.11153120128517</v>
+        <v>0.7344429015892224</v>
       </c>
       <c r="AK17" t="n">
-        <v>32.79423504381906</v>
+        <v>46.87309137374955</v>
       </c>
       <c r="AL17" t="n">
-        <v>15.99440671926157</v>
+        <v>13.94664280540527</v>
       </c>
       <c r="AM17" t="n">
-        <v>43.43381796358045</v>
+        <v>27.71758713910385</v>
       </c>
       <c r="AN17" t="n">
-        <v>38.70569325794945</v>
+        <v>9.073888948200651</v>
       </c>
       <c r="AO17" t="n">
-        <v>25.3846677574107</v>
+        <v>14.42649792148716</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>30.02243516048441</v>
       </c>
       <c r="AQ17" t="n">
-        <v>40.93989529439911</v>
+        <v>19.00598472788336</v>
       </c>
       <c r="AR17" t="n">
-        <v>27.07957425847151</v>
+        <v>26.06949579564966</v>
       </c>
       <c r="AS17" t="n">
-        <v>18.01808902074473</v>
+        <v>20.94923990608513</v>
       </c>
       <c r="AT17" t="n">
-        <v>8.741861522347177</v>
+        <v>15.98869349932811</v>
       </c>
       <c r="AU17" t="n">
-        <v>20.30110942891156</v>
+        <v>34.86482024756961</v>
       </c>
       <c r="AV17" t="n">
-        <v>17.91792433745401</v>
+        <v>18.11668531887564</v>
       </c>
       <c r="AW17" t="n">
-        <v>20.74273869783494</v>
+        <v>23.99224987817846</v>
       </c>
       <c r="AX17" t="n">
-        <v>11.25100468030351</v>
+        <v>7.201626054974444</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.841140449598423</v>
+        <v>13.92818755704369</v>
       </c>
       <c r="D18" t="n">
-        <v>3.346349542018407</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4.086446665569764</v>
       </c>
       <c r="F18" t="n">
-        <v>10.38122251298932</v>
+        <v>10.86615525116407</v>
       </c>
       <c r="G18" t="n">
-        <v>4.171245017885438</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>14.88201986127037</v>
+        <v>2.573639455795711</v>
       </c>
       <c r="I18" t="n">
-        <v>70.32362070051322</v>
+        <v>0.9815106096264605</v>
       </c>
       <c r="J18" t="n">
-        <v>85.157861072598</v>
+        <v>7.447686140181174</v>
       </c>
       <c r="K18" t="n">
-        <v>40.73803902300823</v>
+        <v>6.539425304951948</v>
       </c>
       <c r="L18" t="n">
-        <v>53.26607805005995</v>
+        <v>44.61456343613038</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>11.73522958100525</v>
       </c>
       <c r="N18" t="n">
-        <v>31.9515906910497</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>80.27600099512024</v>
+        <v>9.852873002677917</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55475470349654</v>
+        <v>39.22352355277397</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.87481434055279</v>
+        <v>2.866117032389336</v>
       </c>
       <c r="R18" t="n">
-        <v>12.19451387000879</v>
+        <v>46.35440165247032</v>
       </c>
       <c r="S18" t="n">
-        <v>54.93814471227042</v>
+        <v>81.15426834502082</v>
       </c>
       <c r="T18" t="n">
-        <v>19.53336023322325</v>
+        <v>0.9760204184104122</v>
       </c>
       <c r="U18" t="n">
-        <v>11.12404270792877</v>
+        <v>6.283562809272668</v>
       </c>
       <c r="V18" t="n">
-        <v>22.57274134615218</v>
+        <v>20.28169392624351</v>
       </c>
       <c r="W18" t="n">
-        <v>46.48653698872493</v>
+        <v>19.51275334097141</v>
       </c>
       <c r="X18" t="n">
-        <v>11.19308179901005</v>
+        <v>7.47471331125363</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.451922961102439</v>
+        <v>12.43624223570361</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.49233151487848</v>
+        <v>98.1191557308421</v>
       </c>
       <c r="AA18" t="n">
-        <v>16.67378637644381</v>
+        <v>1.053900621372474</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.535200059738631</v>
+        <v>24.84706057405553</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.3422158212862</v>
+        <v>9.64773690630356</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.57981674117731</v>
+        <v>11.06800449862536</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.4753929231514</v>
+        <v>20.4379535578967</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.87128981795196</v>
+        <v>29.48100951493574</v>
       </c>
       <c r="AG18" t="n">
-        <v>25.17039718807862</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.391549597908313</v>
+        <v>11.20025016736124</v>
       </c>
       <c r="AI18" t="n">
-        <v>13.48967512088391</v>
+        <v>12.28561588670424</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.277867679112973</v>
+        <v>21.48708744585481</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.483681094176014</v>
+        <v>13.19932259948727</v>
       </c>
       <c r="AL18" t="n">
-        <v>11.4749284179924</v>
+        <v>5.177128956193192</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.042973785079252</v>
+        <v>1.389547562065176</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.468231978004255</v>
+        <v>0.9029341938822599</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.689607736218356</v>
+        <v>2.900062681227695</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.360456961802226</v>
+        <v>4.530342558694348</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.593766649228975</v>
+        <v>2.998788217781803</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.875408472331473</v>
+        <v>8.510257199699593</v>
       </c>
       <c r="AS18" t="n">
-        <v>8.136516979757431</v>
+        <v>1.157270157737531</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.858072439692981</v>
+        <v>0.6308522500119513</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.999720706473183</v>
+        <v>4.610787347838849</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.995925469966147</v>
+        <v>1.625150785189194</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.116293428368373</v>
+        <v>3.442896726001456</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.491435822173671</v>
+        <v>8.582679605803357</v>
       </c>
     </row>
     <row r="19">
@@ -3277,52 +3277,52 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.84598082836699</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>71.63210228759284</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>31.65548234425055</v>
       </c>
       <c r="F19" t="n">
-        <v>14.49175005201851</v>
+        <v>36.82404112059945</v>
       </c>
       <c r="G19" t="n">
-        <v>33.77452884027673</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>42.58190148837839</v>
+        <v>29.75918963696752</v>
       </c>
       <c r="I19" t="n">
-        <v>31.508740035397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.20440622585621</v>
+        <v>26.08745489666865</v>
       </c>
       <c r="K19" t="n">
-        <v>9.625856383317267</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>18.54592281166059</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>13.87410120250188</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>15.93477571829691</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>20.75263081712881</v>
+        <v>25.77502793970646</v>
       </c>
       <c r="P19" t="n">
-        <v>60.1087782247646</v>
+        <v>30.99008859434593</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.9387119424092</v>
+        <v>46.16780947781262</v>
       </c>
       <c r="R19" t="n">
-        <v>2.889788366765019</v>
+        <v>41.98165823784885</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3331,94 +3331,94 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>41.55130443346692</v>
+        <v>49.22303868276502</v>
       </c>
       <c r="V19" t="n">
-        <v>2.718153558969076</v>
+        <v>50.41039968125671</v>
       </c>
       <c r="W19" t="n">
-        <v>9.363679384556418</v>
+        <v>80.87325551352778</v>
       </c>
       <c r="X19" t="n">
-        <v>10.52913616844559</v>
+        <v>29.15478598458498</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.96363899236042</v>
+        <v>17.17394678363853</v>
       </c>
       <c r="Z19" t="n">
-        <v>44.47116205001718</v>
+        <v>27.4622789644254</v>
       </c>
       <c r="AA19" t="n">
-        <v>17.94070543326242</v>
+        <v>3.507338397871544</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.530320769945007</v>
+        <v>3.093188805322169</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.9755821094938</v>
+        <v>54.03915003288642</v>
       </c>
       <c r="AD19" t="n">
-        <v>19.10324553520583</v>
+        <v>21.2510789820534</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.273670458214298</v>
+        <v>42.55130933176768</v>
       </c>
       <c r="AF19" t="n">
-        <v>20.68866235141797</v>
+        <v>71.65418958330301</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.80958315949773</v>
+        <v>2.421972352494931</v>
       </c>
       <c r="AH19" t="n">
-        <v>23.50575507773891</v>
+        <v>12.47284126888785</v>
       </c>
       <c r="AI19" t="n">
-        <v>10.80785116638105</v>
+        <v>13.11548686713464</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>10.89429959354631</v>
       </c>
       <c r="AK19" t="n">
-        <v>37.97631757364675</v>
+        <v>76.1680340612934</v>
       </c>
       <c r="AL19" t="n">
-        <v>15.73541648250636</v>
+        <v>6.158208476480342</v>
       </c>
       <c r="AM19" t="n">
-        <v>16.51547622144039</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.915229897493424</v>
+        <v>9.663117098222965</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.801534136285511</v>
+        <v>19.21620768418985</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.791364817336576</v>
+        <v>16.40638203173858</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4.017332039421835</v>
+        <v>12.20871044782645</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.9113961892849909</v>
+        <v>3.680884077284985</v>
       </c>
       <c r="AS19" t="n">
-        <v>10.04673004081616</v>
+        <v>6.027107890178227</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.032486433401914</v>
+        <v>7.177921354102352</v>
       </c>
       <c r="AU19" t="n">
-        <v>14.67801487332859</v>
+        <v>2.41017965890229</v>
       </c>
       <c r="AV19" t="n">
-        <v>11.64313961389184</v>
+        <v>3.995173706350518</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.07163903962217</v>
+        <v>3.530529075879937</v>
       </c>
       <c r="AX19" t="n">
-        <v>2.177474522832372</v>
+        <v>0.1227832697849829</v>
       </c>
     </row>
     <row r="20">
@@ -3432,145 +3432,145 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>23.88355708590981</v>
+        <v>29.47825502269157</v>
       </c>
       <c r="E20" t="n">
-        <v>33.76019451512133</v>
+        <v>242.7957178071223</v>
       </c>
       <c r="F20" t="n">
-        <v>11.19275136240489</v>
+        <v>8.643958986412482</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>15.82939436286438</v>
+        <v>21.05785110969499</v>
       </c>
       <c r="I20" t="n">
-        <v>20.28019815795671</v>
+        <v>29.23890970640805</v>
       </c>
       <c r="J20" t="n">
-        <v>73.37816329179772</v>
+        <v>14.40642327789002</v>
       </c>
       <c r="K20" t="n">
-        <v>24.41362102248718</v>
+        <v>45.62326566732374</v>
       </c>
       <c r="L20" t="n">
-        <v>36.71896351062795</v>
+        <v>20.52985039747972</v>
       </c>
       <c r="M20" t="n">
-        <v>102.8411758094551</v>
+        <v>45.97602172031232</v>
       </c>
       <c r="N20" t="n">
-        <v>51.48861679514057</v>
+        <v>45.43646782292046</v>
       </c>
       <c r="O20" t="n">
-        <v>120.1200941163575</v>
+        <v>31.07698884986353</v>
       </c>
       <c r="P20" t="n">
-        <v>41.66237240306963</v>
+        <v>56.44562284937167</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.66481025285462</v>
+        <v>67.38838478735046</v>
       </c>
       <c r="R20" t="n">
-        <v>38.10279909229718</v>
+        <v>92.71833063885747</v>
       </c>
       <c r="S20" t="n">
-        <v>84.08989165592821</v>
+        <v>70.40864125182746</v>
       </c>
       <c r="T20" t="n">
-        <v>83.72415420174279</v>
+        <v>127.157856244168</v>
       </c>
       <c r="U20" t="n">
-        <v>85.12567723523297</v>
+        <v>76.25026314552127</v>
       </c>
       <c r="V20" t="n">
-        <v>69.15146058883462</v>
+        <v>39.07491298775462</v>
       </c>
       <c r="W20" t="n">
-        <v>54.57072755221592</v>
+        <v>41.47362310776653</v>
       </c>
       <c r="X20" t="n">
-        <v>39.12114892968494</v>
+        <v>67.73472041831342</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.8959218349893</v>
+        <v>25.630242020684</v>
       </c>
       <c r="Z20" t="n">
-        <v>154.0406100748544</v>
+        <v>36.35278237497567</v>
       </c>
       <c r="AA20" t="n">
-        <v>107.4568125237963</v>
+        <v>48.55551912752902</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.51314759403199</v>
+        <v>47.43136800735762</v>
       </c>
       <c r="AC20" t="n">
-        <v>107.2865273094163</v>
+        <v>77.31990007187481</v>
       </c>
       <c r="AD20" t="n">
-        <v>100.0970588873716</v>
+        <v>117.2815180903139</v>
       </c>
       <c r="AE20" t="n">
-        <v>103.9954733173616</v>
+        <v>99.51851342237059</v>
       </c>
       <c r="AF20" t="n">
-        <v>120.9230638800657</v>
+        <v>36.38737096441149</v>
       </c>
       <c r="AG20" t="n">
-        <v>68.81732004584691</v>
+        <v>138.9520500316851</v>
       </c>
       <c r="AH20" t="n">
-        <v>124.1586113589771</v>
+        <v>126.612726879897</v>
       </c>
       <c r="AI20" t="n">
-        <v>125.4310770806105</v>
+        <v>152.0784132971488</v>
       </c>
       <c r="AJ20" t="n">
-        <v>89.79575852380793</v>
+        <v>93.1664642847476</v>
       </c>
       <c r="AK20" t="n">
-        <v>42.45146796302804</v>
+        <v>99.57269049994373</v>
       </c>
       <c r="AL20" t="n">
-        <v>58.60721531257244</v>
+        <v>148.4312493103429</v>
       </c>
       <c r="AM20" t="n">
-        <v>94.49578182816535</v>
+        <v>32.72923378381169</v>
       </c>
       <c r="AN20" t="n">
-        <v>54.70631646879487</v>
+        <v>37.24781028911119</v>
       </c>
       <c r="AO20" t="n">
-        <v>31.41722100010578</v>
+        <v>63.8861201143085</v>
       </c>
       <c r="AP20" t="n">
-        <v>22.96541245273568</v>
+        <v>19.41555842337253</v>
       </c>
       <c r="AQ20" t="n">
-        <v>38.95084232912964</v>
+        <v>31.6724459372384</v>
       </c>
       <c r="AR20" t="n">
-        <v>17.63265922973414</v>
+        <v>23.78154282526206</v>
       </c>
       <c r="AS20" t="n">
-        <v>19.56701877561218</v>
+        <v>25.78811020318147</v>
       </c>
       <c r="AT20" t="n">
-        <v>9.866334678873359</v>
+        <v>25.79942774808926</v>
       </c>
       <c r="AU20" t="n">
-        <v>17.01700163700917</v>
+        <v>49.51434509847617</v>
       </c>
       <c r="AV20" t="n">
-        <v>16.38992378885837</v>
+        <v>65.8367353661714</v>
       </c>
       <c r="AW20" t="n">
-        <v>26.76907159395441</v>
+        <v>29.06472480248994</v>
       </c>
       <c r="AX20" t="n">
-        <v>23.64814807845807</v>
+        <v>42.95057870342526</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.753402445087518</v>
+        <v>4.757731986171068</v>
       </c>
       <c r="D21" t="n">
-        <v>2.715521019961588</v>
+        <v>3.372940581149281</v>
       </c>
       <c r="E21" t="n">
-        <v>5.499087718782548</v>
+        <v>4.263040855707325</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.43936670948365</v>
       </c>
       <c r="G21" t="n">
-        <v>1.24989749691104</v>
+        <v>2.634135120101705</v>
       </c>
       <c r="H21" t="n">
-        <v>2.308824530728955</v>
+        <v>0.8368486899260652</v>
       </c>
       <c r="I21" t="n">
-        <v>3.059757049292183</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.227245900132936</v>
+        <v>2.600559354975575</v>
       </c>
       <c r="K21" t="n">
-        <v>7.003994355332441</v>
+        <v>0.6391870339879904</v>
       </c>
       <c r="L21" t="n">
-        <v>1.294191069813904</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>5.879211700878658</v>
+        <v>4.275364186227972</v>
       </c>
       <c r="N21" t="n">
-        <v>4.215617055726683</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5903223979743871</v>
+        <v>3.068013065862846</v>
       </c>
       <c r="P21" t="n">
-        <v>2.069514514642432</v>
+        <v>2.319758157423174</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.256328008271058</v>
+        <v>7.102930817354077</v>
       </c>
       <c r="R21" t="n">
-        <v>2.46497335942176</v>
+        <v>15.81302715385661</v>
       </c>
       <c r="S21" t="n">
-        <v>7.295664608792195</v>
+        <v>3.357746107952988</v>
       </c>
       <c r="T21" t="n">
-        <v>6.728059090570298</v>
+        <v>4.342327416184451</v>
       </c>
       <c r="U21" t="n">
-        <v>3.151636735208778</v>
+        <v>0.7934981865352413</v>
       </c>
       <c r="V21" t="n">
-        <v>6.415674112910813</v>
+        <v>2.195691224888572</v>
       </c>
       <c r="W21" t="n">
-        <v>5.523483587687082</v>
+        <v>11.1145144961322</v>
       </c>
       <c r="X21" t="n">
-        <v>4.331769867093753</v>
+        <v>3.405544440364032</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.209453136848379</v>
+        <v>3.54333555028584</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.366006838121717</v>
+        <v>6.898510076749145</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.141340586813763</v>
+        <v>5.28033292717487</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.194705283037756</v>
+        <v>3.881644860877351</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.360659188499445</v>
+        <v>3.110146234640057</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.438118594450677</v>
+        <v>5.47412473653102</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.561946851142871</v>
+        <v>8.57118959873663</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.48227438276249</v>
+        <v>7.022675640624666</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.350270144670804</v>
+        <v>7.41686790047679</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.029922232911938</v>
+        <v>4.931597535338449</v>
       </c>
       <c r="AI21" t="n">
-        <v>7.389619767932285</v>
+        <v>3.108995112546098</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.664903556806866</v>
+        <v>6.974256151105314</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.603467785544125</v>
+        <v>9.432147764822144</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.875869949729125</v>
+        <v>5.699598632366126</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.988949397967529</v>
+        <v>4.579498451916193</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.760912014949123</v>
+        <v>4.237089614229412</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.075537264037752</v>
+        <v>1.524798551056637</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.057192016439884</v>
+        <v>5.657929852213414</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1.90081260664418</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.673680182456185</v>
+        <v>2.604295447959388</v>
       </c>
       <c r="AS21" t="n">
-        <v>4.053162775500805</v>
+        <v>4.465270638720982</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.360606542276261</v>
+        <v>8.130270651761538</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.86315570745183</v>
+        <v>4.424311480822208</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.967437807746895</v>
+        <v>1.556620457490908</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.347790734757694</v>
+        <v>1.923740433244137</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.605208810296666</v>
+        <v>3.510183367007645</v>
       </c>
     </row>
     <row r="22">
@@ -3736,145 +3736,145 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.054414834709232</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.49179800926067</v>
       </c>
       <c r="F22" t="n">
-        <v>19.56186312773562</v>
+        <v>18.53033622882615</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>52.50856263249789</v>
       </c>
       <c r="H22" t="n">
-        <v>22.98987467069013</v>
+        <v>0.6334131654995616</v>
       </c>
       <c r="I22" t="n">
-        <v>5.17402064866913</v>
+        <v>99.55476519388054</v>
       </c>
       <c r="J22" t="n">
-        <v>150.8145468090796</v>
+        <v>25.62481920686547</v>
       </c>
       <c r="K22" t="n">
-        <v>158.2673353199274</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>126.3330992874889</v>
+        <v>85.06434390718782</v>
       </c>
       <c r="M22" t="n">
-        <v>102.689677914363</v>
+        <v>17.46985499862272</v>
       </c>
       <c r="N22" t="n">
-        <v>54.06634020464324</v>
+        <v>31.44438816085025</v>
       </c>
       <c r="O22" t="n">
-        <v>307.3013601276498</v>
+        <v>34.85377148846122</v>
       </c>
       <c r="P22" t="n">
-        <v>54.80440892722783</v>
+        <v>23.31173497241382</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.56267509411538</v>
+        <v>59.42358364072664</v>
       </c>
       <c r="R22" t="n">
-        <v>167.3737908513255</v>
+        <v>54.33110470258045</v>
       </c>
       <c r="S22" t="n">
-        <v>73.01323413656772</v>
+        <v>36.46050016323654</v>
       </c>
       <c r="T22" t="n">
-        <v>61.45132149648113</v>
+        <v>66.57965271113221</v>
       </c>
       <c r="U22" t="n">
-        <v>293.6320513166405</v>
+        <v>46.00296798007112</v>
       </c>
       <c r="V22" t="n">
-        <v>17.91354348031592</v>
+        <v>38.69608980201671</v>
       </c>
       <c r="W22" t="n">
-        <v>48.6495726133866</v>
+        <v>96.45298957615196</v>
       </c>
       <c r="X22" t="n">
-        <v>65.09781651694631</v>
+        <v>87.93383068441089</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.8635071391267</v>
+        <v>92.96693751924035</v>
       </c>
       <c r="Z22" t="n">
-        <v>87.41545407511832</v>
+        <v>61.75444587179877</v>
       </c>
       <c r="AA22" t="n">
-        <v>75.01797622496889</v>
+        <v>14.79894878476831</v>
       </c>
       <c r="AB22" t="n">
-        <v>53.90738832842563</v>
+        <v>42.99114420817792</v>
       </c>
       <c r="AC22" t="n">
-        <v>48.61139817422234</v>
+        <v>32.05212830576554</v>
       </c>
       <c r="AD22" t="n">
-        <v>61.3728589980953</v>
+        <v>45.85983957822891</v>
       </c>
       <c r="AE22" t="n">
-        <v>57.98547447286332</v>
+        <v>56.46516723564588</v>
       </c>
       <c r="AF22" t="n">
-        <v>71.13673215916334</v>
+        <v>85.85923644969013</v>
       </c>
       <c r="AG22" t="n">
-        <v>60.09690282618766</v>
+        <v>55.47039956063139</v>
       </c>
       <c r="AH22" t="n">
-        <v>85.38820842807148</v>
+        <v>66.60032156540271</v>
       </c>
       <c r="AI22" t="n">
-        <v>73.46110703494725</v>
+        <v>149.3281079195904</v>
       </c>
       <c r="AJ22" t="n">
-        <v>42.75255715269139</v>
+        <v>73.70887034476148</v>
       </c>
       <c r="AK22" t="n">
-        <v>27.50883351373407</v>
+        <v>28.10514635980973</v>
       </c>
       <c r="AL22" t="n">
-        <v>31.78824863920165</v>
+        <v>33.89656909230718</v>
       </c>
       <c r="AM22" t="n">
-        <v>5.899785633290958</v>
+        <v>13.54458573886883</v>
       </c>
       <c r="AN22" t="n">
-        <v>29.49476944893623</v>
+        <v>15.55518380989617</v>
       </c>
       <c r="AO22" t="n">
-        <v>42.18542377630471</v>
+        <v>9.11982140960699</v>
       </c>
       <c r="AP22" t="n">
-        <v>21.32905919301253</v>
+        <v>14.85196214880986</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23.32159193431624</v>
+        <v>14.30365353983293</v>
       </c>
       <c r="AR22" t="n">
-        <v>10.4979077146462</v>
+        <v>22.78059518275364</v>
       </c>
       <c r="AS22" t="n">
-        <v>32.90200687716473</v>
+        <v>32.72530715393618</v>
       </c>
       <c r="AT22" t="n">
-        <v>9.118181428867386</v>
+        <v>14.84493898765999</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.815282993883161</v>
+        <v>19.14311033814429</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.276867407976823</v>
+        <v>6.173970661459368</v>
       </c>
       <c r="AW22" t="n">
-        <v>8.770877399214179</v>
+        <v>8.197007042612224</v>
       </c>
       <c r="AX22" t="n">
-        <v>31.13882110928301</v>
+        <v>26.27618233171713</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>23.31522103238361</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>131.4553293500528</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>35.8194292889853</v>
       </c>
       <c r="G23" t="n">
-        <v>52.35067497579676</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>24.06835754732539</v>
+        <v>9.643931772876687</v>
       </c>
       <c r="I23" t="n">
-        <v>31.09796637626095</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>18.10154088381669</v>
+        <v>25.7432788990226</v>
       </c>
       <c r="K23" t="n">
-        <v>63.93238447547412</v>
+        <v>6.058224000041815</v>
       </c>
       <c r="L23" t="n">
-        <v>52.62683053682435</v>
+        <v>30.88565301243217</v>
       </c>
       <c r="M23" t="n">
-        <v>115.1132946835365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>56.61980980746364</v>
+        <v>8.668419553746586</v>
       </c>
       <c r="O23" t="n">
-        <v>172.3123643810283</v>
+        <v>46.97973885543472</v>
       </c>
       <c r="P23" t="n">
-        <v>80.35440846049063</v>
+        <v>3.336255834954022</v>
       </c>
       <c r="Q23" t="n">
-        <v>119.4518048324662</v>
+        <v>19.36138043283252</v>
       </c>
       <c r="R23" t="n">
-        <v>61.32001371825825</v>
+        <v>75.79722355271237</v>
       </c>
       <c r="S23" t="n">
-        <v>87.31736927420857</v>
+        <v>121.2210924418225</v>
       </c>
       <c r="T23" t="n">
-        <v>102.1336886154975</v>
+        <v>42.07816206989907</v>
       </c>
       <c r="U23" t="n">
-        <v>264.8967759498011</v>
+        <v>85.28512301137351</v>
       </c>
       <c r="V23" t="n">
-        <v>97.65240121928062</v>
+        <v>293.5873950238575</v>
       </c>
       <c r="W23" t="n">
-        <v>32.74107977364979</v>
+        <v>42.69442303037313</v>
       </c>
       <c r="X23" t="n">
-        <v>62.45836047675805</v>
+        <v>23.6925268699828</v>
       </c>
       <c r="Y23" t="n">
-        <v>27.26464921162275</v>
+        <v>93.39292098950054</v>
       </c>
       <c r="Z23" t="n">
-        <v>55.01656329481911</v>
+        <v>20.63076769384039</v>
       </c>
       <c r="AA23" t="n">
-        <v>30.44093962885853</v>
+        <v>66.98782190843363</v>
       </c>
       <c r="AB23" t="n">
-        <v>48.46727911290527</v>
+        <v>3.665156242006951</v>
       </c>
       <c r="AC23" t="n">
-        <v>114.142956987824</v>
+        <v>67.03662313549303</v>
       </c>
       <c r="AD23" t="n">
-        <v>96.62058647785675</v>
+        <v>53.02778756207222</v>
       </c>
       <c r="AE23" t="n">
-        <v>48.07747538121666</v>
+        <v>60.06270356555142</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.605853247970913</v>
+        <v>140.5535297766427</v>
       </c>
       <c r="AG23" t="n">
-        <v>48.07706171837324</v>
+        <v>21.12511787063318</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.589427308185428</v>
+        <v>89.84820336492172</v>
       </c>
       <c r="AI23" t="n">
-        <v>14.29887043621128</v>
+        <v>10.24754395077728</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38.9548805360806</v>
+        <v>13.83178081276211</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.96194762604046</v>
+        <v>35.46319455944194</v>
       </c>
       <c r="AL23" t="n">
-        <v>21.17687555004848</v>
+        <v>19.6340610274783</v>
       </c>
       <c r="AM23" t="n">
-        <v>7.944780745944339</v>
+        <v>38.04651004039491</v>
       </c>
       <c r="AN23" t="n">
-        <v>40.10534779174308</v>
+        <v>18.74232711703066</v>
       </c>
       <c r="AO23" t="n">
-        <v>25.77896265449408</v>
+        <v>19.42849471731148</v>
       </c>
       <c r="AP23" t="n">
-        <v>21.64362877867195</v>
+        <v>31.03799655819189</v>
       </c>
       <c r="AQ23" t="n">
-        <v>24.94337695899882</v>
+        <v>21.06716607216243</v>
       </c>
       <c r="AR23" t="n">
-        <v>14.89284796787918</v>
+        <v>18.01969055619198</v>
       </c>
       <c r="AS23" t="n">
-        <v>6.563276472957421</v>
+        <v>5.07081870344139</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.502494375776535</v>
+        <v>27.96486839214663</v>
       </c>
       <c r="AU23" t="n">
-        <v>25.59229087951726</v>
+        <v>9.31342163013408</v>
       </c>
       <c r="AV23" t="n">
-        <v>26.6929578313861</v>
+        <v>15.58661626592257</v>
       </c>
       <c r="AW23" t="n">
-        <v>23.94255121314108</v>
+        <v>36.26560842300514</v>
       </c>
       <c r="AX23" t="n">
-        <v>36.2108547138522</v>
+        <v>22.05609577987146</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.7993759571518559</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>8.386968635199853</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>30.94772618012376</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>15.27250770826822</v>
       </c>
       <c r="G24" t="n">
-        <v>7.045576432071906</v>
+        <v>19.74881693533541</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.610170349801951</v>
+        <v>71.25043969140975</v>
       </c>
       <c r="J24" t="n">
-        <v>33.53163866605893</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>10.95793237018961</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>42.61717482837492</v>
+        <v>20.03924423683148</v>
       </c>
       <c r="M24" t="n">
-        <v>10.00755568200881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>42.05116566584008</v>
+        <v>18.3994422837653</v>
       </c>
       <c r="O24" t="n">
-        <v>39.39971977382945</v>
+        <v>11.56775783906104</v>
       </c>
       <c r="P24" t="n">
-        <v>20.30813106928781</v>
+        <v>3.39705831879558</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.32688440250376</v>
+        <v>24.24572450962996</v>
       </c>
       <c r="R24" t="n">
-        <v>35.34387115064346</v>
+        <v>24.16376122457446</v>
       </c>
       <c r="S24" t="n">
-        <v>22.50407942292138</v>
+        <v>17.33339691928715</v>
       </c>
       <c r="T24" t="n">
-        <v>11.92657269377924</v>
+        <v>17.8263956314768</v>
       </c>
       <c r="U24" t="n">
-        <v>21.3556446557884</v>
+        <v>18.88044761808349</v>
       </c>
       <c r="V24" t="n">
-        <v>125.9405293361135</v>
+        <v>20.21952400793582</v>
       </c>
       <c r="W24" t="n">
-        <v>10.76831243240665</v>
+        <v>28.46416868307205</v>
       </c>
       <c r="X24" t="n">
-        <v>25.58145726573272</v>
+        <v>25.52922169129537</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.184587921092349</v>
+        <v>22.56761771773214</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.03102921460765</v>
+        <v>37.93897488169393</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.04497653645942</v>
+        <v>8.521749019960687</v>
       </c>
       <c r="AB24" t="n">
-        <v>25.63108698833107</v>
+        <v>19.14339567540838</v>
       </c>
       <c r="AC24" t="n">
-        <v>18.93169848770139</v>
+        <v>14.94110601840492</v>
       </c>
       <c r="AD24" t="n">
-        <v>28.86369454558103</v>
+        <v>12.80008841550255</v>
       </c>
       <c r="AE24" t="n">
-        <v>14.23796835714494</v>
+        <v>5.516525426973474</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.56655974991035</v>
+        <v>13.20913149538646</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.211331237358101</v>
+        <v>10.61058656920501</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>8.074585594303313</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.00066663948107</v>
+        <v>11.59748539896506</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.465126390904219</v>
+        <v>5.507600029312982</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>16.28211708434333</v>
       </c>
       <c r="AL24" t="n">
-        <v>26.38895764943713</v>
+        <v>8.569953002912047</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.949587229251861</v>
+        <v>4.465589176715521</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.414476208229753</v>
+        <v>2.647144264281398</v>
       </c>
       <c r="AO24" t="n">
-        <v>2.034658322607826</v>
+        <v>3.984348490495133</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.331812457950619</v>
+        <v>0.2487962132327945</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.027350825877476</v>
+        <v>1.976691204508124</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.186662198271537</v>
+        <v>4.45560392033823</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.357864110215743</v>
+        <v>5.721923582176392</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.570682382806868</v>
+        <v>2.378451807512342</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.061601328718205</v>
+        <v>1.049487580503196</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>3.204577313399213</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.510548779310323</v>
+        <v>3.860885605149565</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.08927516884385</v>
+        <v>4.081196898572306</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>104.8290267546944</v>
       </c>
       <c r="D25" t="n">
-        <v>3.533196978512176</v>
+        <v>2.684945215350187</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>23.08514415046287</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>13.66211055122368</v>
+        <v>46.75073179562786</v>
       </c>
       <c r="H25" t="n">
-        <v>93.08314220668582</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.604069064443467</v>
       </c>
       <c r="J25" t="n">
-        <v>26.54852702088241</v>
+        <v>0.6940818039964549</v>
       </c>
       <c r="K25" t="n">
-        <v>27.59767518410645</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>51.84467563942315</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>65.4206833867454</v>
+        <v>26.54391404960352</v>
       </c>
       <c r="N25" t="n">
-        <v>49.80387492119098</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>92.36868176774888</v>
+        <v>6.753281937676748</v>
       </c>
       <c r="P25" t="n">
-        <v>91.48353174741429</v>
+        <v>77.02280942466517</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.09740283211367</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.92938152938719</v>
+        <v>31.71067990278421</v>
       </c>
       <c r="S25" t="n">
-        <v>34.61619273033717</v>
+        <v>25.94252976448229</v>
       </c>
       <c r="T25" t="n">
-        <v>39.00033023096573</v>
+        <v>87.07982458770275</v>
       </c>
       <c r="U25" t="n">
-        <v>38.13079919178534</v>
+        <v>15.63452286491797</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>95.73518850745369</v>
       </c>
       <c r="W25" t="n">
-        <v>18.14502205642259</v>
+        <v>82.64399934854383</v>
       </c>
       <c r="X25" t="n">
-        <v>4.320726740817243</v>
+        <v>88.8428094062395</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.02522891974145</v>
+        <v>53.02669385455809</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.78188052771183</v>
+        <v>20.77187782246753</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.336845781398413</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.42082182964623</v>
+        <v>4.134013619854018</v>
       </c>
       <c r="AC25" t="n">
-        <v>15.70725011845651</v>
+        <v>7.726408806260594</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.05990430507556</v>
+        <v>14.62809481077864</v>
       </c>
       <c r="AE25" t="n">
-        <v>14.34104520598044</v>
+        <v>1.5396712882894</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>14.8793146527004</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>5.824123189394771</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.024598666453503</v>
+        <v>8.752785277129361</v>
       </c>
       <c r="AI25" t="n">
-        <v>48.64671006604873</v>
+        <v>0.9967325290503313</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.41334898363347</v>
+        <v>8.671661374104426</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.86556619108788</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>40.31720664873515</v>
+        <v>8.090145095453892</v>
       </c>
       <c r="AM25" t="n">
-        <v>4.498376382565844</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>72.24906323854981</v>
+        <v>6.872523781807058</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.964932868607606</v>
+        <v>0.2190206906425337</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>8.280227009241152</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9.734134161109438</v>
+        <v>0.8824287502019503</v>
       </c>
       <c r="AR25" t="n">
-        <v>14.50023120593602</v>
+        <v>4.289849432074481</v>
       </c>
       <c r="AS25" t="n">
-        <v>5.524776217078646</v>
+        <v>0.1248410546575722</v>
       </c>
       <c r="AT25" t="n">
-        <v>32.78356275829576</v>
+        <v>5.724600962488537</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.6650253049848913</v>
+        <v>4.8115217196799</v>
       </c>
       <c r="AV25" t="n">
-        <v>2.40722101990645</v>
+        <v>9.433051682101597</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.669854891033101</v>
+        <v>53.04323551607602</v>
       </c>
       <c r="AX25" t="n">
-        <v>2.380160340576348</v>
+        <v>10.39195889389973</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14772230495811</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>19.47591091920608</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>29.87534218106486</v>
+        <v>52.43869314991275</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>10.12186415624965</v>
       </c>
       <c r="G26" t="n">
-        <v>19.26034969121452</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>28.42336210039675</v>
+        <v>30.07593373559388</v>
       </c>
       <c r="I26" t="n">
-        <v>30.57612413966356</v>
+        <v>13.21127688296728</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.651914084980266</v>
       </c>
       <c r="K26" t="n">
-        <v>7.426934116417234</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>23.28218202962844</v>
+        <v>10.93116892935952</v>
       </c>
       <c r="M26" t="n">
-        <v>48.81223054039595</v>
+        <v>48.14690906945437</v>
       </c>
       <c r="N26" t="n">
-        <v>106.3952836638558</v>
+        <v>36.31429059798186</v>
       </c>
       <c r="O26" t="n">
-        <v>38.64360487403009</v>
+        <v>52.86580921530442</v>
       </c>
       <c r="P26" t="n">
-        <v>39.41764897414583</v>
+        <v>76.74570253706584</v>
       </c>
       <c r="Q26" t="n">
-        <v>20.31480204267339</v>
+        <v>42.31765705865359</v>
       </c>
       <c r="R26" t="n">
-        <v>169.7478458607852</v>
+        <v>73.37893981454883</v>
       </c>
       <c r="S26" t="n">
-        <v>54.88798408597009</v>
+        <v>48.93286205986843</v>
       </c>
       <c r="T26" t="n">
-        <v>39.14606282486724</v>
+        <v>244.6921335717016</v>
       </c>
       <c r="U26" t="n">
-        <v>28.70000537156798</v>
+        <v>31.19192283497355</v>
       </c>
       <c r="V26" t="n">
-        <v>23.55998814933646</v>
+        <v>130.1933218643069</v>
       </c>
       <c r="W26" t="n">
-        <v>38.3521602032692</v>
+        <v>41.84786567611012</v>
       </c>
       <c r="X26" t="n">
-        <v>45.99632002675849</v>
+        <v>29.27535919717286</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.45630537567744</v>
+        <v>50.60246501590902</v>
       </c>
       <c r="Z26" t="n">
-        <v>66.32244566954463</v>
+        <v>57.76370201676148</v>
       </c>
       <c r="AA26" t="n">
-        <v>76.2429716497556</v>
+        <v>139.6347065522094</v>
       </c>
       <c r="AB26" t="n">
-        <v>85.38251304678246</v>
+        <v>168.8747844330767</v>
       </c>
       <c r="AC26" t="n">
-        <v>143.6371725150771</v>
+        <v>38.50798631554631</v>
       </c>
       <c r="AD26" t="n">
-        <v>102.11509567814</v>
+        <v>108.4664643588119</v>
       </c>
       <c r="AE26" t="n">
-        <v>138.4889091930632</v>
+        <v>97.1973035163192</v>
       </c>
       <c r="AF26" t="n">
-        <v>135.0091566749607</v>
+        <v>44.38307707157789</v>
       </c>
       <c r="AG26" t="n">
-        <v>85.93799441274611</v>
+        <v>50.63866217706817</v>
       </c>
       <c r="AH26" t="n">
-        <v>193.025618927009</v>
+        <v>68.77679712995906</v>
       </c>
       <c r="AI26" t="n">
-        <v>24.21195404144695</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>101.7387093348986</v>
+        <v>43.72012243597055</v>
       </c>
       <c r="AK26" t="n">
-        <v>47.90121868395566</v>
+        <v>103.2955886574378</v>
       </c>
       <c r="AL26" t="n">
-        <v>21.87960296216497</v>
+        <v>70.05924264309959</v>
       </c>
       <c r="AM26" t="n">
-        <v>33.93701991107579</v>
+        <v>54.35798442328714</v>
       </c>
       <c r="AN26" t="n">
-        <v>22.35409132195151</v>
+        <v>35.92277810389057</v>
       </c>
       <c r="AO26" t="n">
-        <v>32.66652968736499</v>
+        <v>52.00046436700291</v>
       </c>
       <c r="AP26" t="n">
-        <v>22.45852726324359</v>
+        <v>16.48387777380171</v>
       </c>
       <c r="AQ26" t="n">
-        <v>27.13251696229722</v>
+        <v>20.89277383307309</v>
       </c>
       <c r="AR26" t="n">
-        <v>23.15419698696139</v>
+        <v>28.17200720164634</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.77192426620032</v>
+        <v>19.40375535314915</v>
       </c>
       <c r="AT26" t="n">
-        <v>4.646830588346015</v>
+        <v>24.70145064197446</v>
       </c>
       <c r="AU26" t="n">
-        <v>19.6901649553568</v>
+        <v>23.66661159031541</v>
       </c>
       <c r="AV26" t="n">
-        <v>15.73444346753559</v>
+        <v>12.37280220046422</v>
       </c>
       <c r="AW26" t="n">
-        <v>12.51262984317401</v>
+        <v>5.858086306302219</v>
       </c>
       <c r="AX26" t="n">
-        <v>10.7056999647779</v>
+        <v>18.22270709589623</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.985257932206569</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5163539036515534</v>
+        <v>2.439386247258324</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6361753484183079</v>
+        <v>5.810407716546257</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9299513736380886</v>
+        <v>1.799643310034636</v>
       </c>
       <c r="I27" t="n">
-        <v>4.510106768797268</v>
+        <v>3.655244439881649</v>
       </c>
       <c r="J27" t="n">
-        <v>3.988595062355952</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1.674510288913321</v>
+        <v>2.529045567923832</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3363421766621743</v>
+        <v>3.270927571499891</v>
       </c>
       <c r="M27" t="n">
-        <v>9.549155372916625</v>
+        <v>2.519821212236398</v>
       </c>
       <c r="N27" t="n">
-        <v>3.156816149668</v>
+        <v>3.754317019367591</v>
       </c>
       <c r="O27" t="n">
-        <v>4.82529798798755</v>
+        <v>1.126876802179907</v>
       </c>
       <c r="P27" t="n">
-        <v>7.670139958307122</v>
+        <v>6.70167062075659</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.059112586024775</v>
+        <v>6.040610683371034</v>
       </c>
       <c r="R27" t="n">
-        <v>0.5538363660973895</v>
+        <v>2.041392211717979</v>
       </c>
       <c r="S27" t="n">
-        <v>3.317958714041827</v>
+        <v>13.84282650189919</v>
       </c>
       <c r="T27" t="n">
-        <v>5.458691170701877</v>
+        <v>2.055525146600059</v>
       </c>
       <c r="U27" t="n">
-        <v>7.510734123886083</v>
+        <v>5.495465476316533</v>
       </c>
       <c r="V27" t="n">
-        <v>5.940286687047839</v>
+        <v>4.131618836659008</v>
       </c>
       <c r="W27" t="n">
-        <v>8.624530780891124</v>
+        <v>28.63719020795673</v>
       </c>
       <c r="X27" t="n">
-        <v>1.158087855935129</v>
+        <v>8.582186177101436</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.085630084798103</v>
+        <v>0.6721307325245922</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.637951595138722</v>
+        <v>3.367937063856738</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.371998140983351</v>
+        <v>6.763662122972746</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.134510347744835</v>
+        <v>6.633608599890704</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.086048828756641</v>
+        <v>5.569585501819</v>
       </c>
       <c r="AD27" t="n">
-        <v>8.076715702481756</v>
+        <v>3.792074505577145</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.554127816849802</v>
+        <v>8.688678010269424</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.98212142280043</v>
+        <v>4.938302141388049</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.448699788846621</v>
+        <v>8.769757975021987</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.619984790272148</v>
+        <v>11.44807942943018</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.11891181868683</v>
+        <v>2.637338420965793</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.286412558487583</v>
+        <v>6.636820048248784</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.380816990674282</v>
+        <v>6.655943631072056</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.528399930256927</v>
+        <v>5.122815560020658</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.580560934650742</v>
+        <v>5.570942001020551</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.45518784468688</v>
+        <v>2.813509779790127</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.691514676607362</v>
+        <v>4.911336771082081</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.416933837162166</v>
+        <v>3.815920216350247</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.35864318629002</v>
+        <v>2.063400875508982</v>
       </c>
       <c r="AR27" t="n">
-        <v>7.313894784598139</v>
+        <v>2.244787190141221</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.912303937495907</v>
+        <v>5.826563765921962</v>
       </c>
       <c r="AT27" t="n">
-        <v>4.851775672464429</v>
+        <v>9.050703729799766</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.849628373597508</v>
+        <v>5.419613107023012</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.191421265192321</v>
+        <v>4.187879494215611</v>
       </c>
       <c r="AW27" t="n">
-        <v>6.117688294609192</v>
+        <v>4.137854779087198</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.183307039954054</v>
+        <v>0.3675346573439867</v>
       </c>
     </row>
     <row r="28">
@@ -4648,145 +4648,145 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.969408420643809</v>
+        <v>77.87648768798073</v>
       </c>
       <c r="E28" t="n">
-        <v>11.2208953281726</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08476773356744438</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.28968315521797</v>
+        <v>23.64939945540326</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>123.2673078212951</v>
       </c>
       <c r="I28" t="n">
-        <v>4.08277643597517</v>
+        <v>80.01456036557215</v>
       </c>
       <c r="J28" t="n">
-        <v>2.781111643451412</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>94.96614465808841</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>57.54220669974129</v>
+        <v>89.38073296578941</v>
       </c>
       <c r="M28" t="n">
-        <v>23.34918594477145</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>468.7319650633762</v>
+        <v>11.13515366245109</v>
       </c>
       <c r="O28" t="n">
-        <v>111.7426452635051</v>
+        <v>59.09339079430796</v>
       </c>
       <c r="P28" t="n">
-        <v>51.64702225287562</v>
+        <v>44.51221134508992</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.09734837562242</v>
+        <v>38.42473885154632</v>
       </c>
       <c r="R28" t="n">
-        <v>137.474598824437</v>
+        <v>56.84388459278452</v>
       </c>
       <c r="S28" t="n">
-        <v>82.80866036431145</v>
+        <v>20.70004465871353</v>
       </c>
       <c r="T28" t="n">
-        <v>36.84789798007073</v>
+        <v>210.4352583864305</v>
       </c>
       <c r="U28" t="n">
-        <v>60.84128968324957</v>
+        <v>48.60242184383662</v>
       </c>
       <c r="V28" t="n">
-        <v>19.00707292296114</v>
+        <v>60.98932998765011</v>
       </c>
       <c r="W28" t="n">
-        <v>67.3078111149994</v>
+        <v>27.68672796587051</v>
       </c>
       <c r="X28" t="n">
-        <v>158.0159212445627</v>
+        <v>84.05908596090401</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.12341566293281</v>
+        <v>78.11899096668725</v>
       </c>
       <c r="Z28" t="n">
-        <v>67.66783152621383</v>
+        <v>45.51565430852249</v>
       </c>
       <c r="AA28" t="n">
-        <v>71.19002685249079</v>
+        <v>36.12639628647703</v>
       </c>
       <c r="AB28" t="n">
-        <v>72.04910713518086</v>
+        <v>54.07872511719489</v>
       </c>
       <c r="AC28" t="n">
-        <v>69.61051761512408</v>
+        <v>65.1415904174474</v>
       </c>
       <c r="AD28" t="n">
-        <v>116.7500786484661</v>
+        <v>36.68814763383691</v>
       </c>
       <c r="AE28" t="n">
-        <v>53.43956297128011</v>
+        <v>71.44103909546951</v>
       </c>
       <c r="AF28" t="n">
-        <v>45.8193661406163</v>
+        <v>37.52695651069121</v>
       </c>
       <c r="AG28" t="n">
-        <v>43.36787744755679</v>
+        <v>41.99647355318577</v>
       </c>
       <c r="AH28" t="n">
-        <v>52.42816730446729</v>
+        <v>121.0117706335598</v>
       </c>
       <c r="AI28" t="n">
-        <v>35.48778101406456</v>
+        <v>55.17031548980595</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23.0332572104296</v>
+        <v>101.862625550252</v>
       </c>
       <c r="AK28" t="n">
-        <v>36.70531261547151</v>
+        <v>145.5011776606521</v>
       </c>
       <c r="AL28" t="n">
-        <v>34.93495363351636</v>
+        <v>94.8384457648776</v>
       </c>
       <c r="AM28" t="n">
-        <v>31.82986448063474</v>
+        <v>7.783659995153267</v>
       </c>
       <c r="AN28" t="n">
-        <v>28.27013630984418</v>
+        <v>16.38328620772558</v>
       </c>
       <c r="AO28" t="n">
-        <v>12.5775911180868</v>
+        <v>8.55726407360909</v>
       </c>
       <c r="AP28" t="n">
-        <v>10.68243397220207</v>
+        <v>9.048844770540027</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18.94064036898202</v>
+        <v>8.917977370372542</v>
       </c>
       <c r="AR28" t="n">
-        <v>14.97460986306568</v>
+        <v>11.69472907509895</v>
       </c>
       <c r="AS28" t="n">
-        <v>21.62832489073711</v>
+        <v>12.77772590950099</v>
       </c>
       <c r="AT28" t="n">
-        <v>16.69786454149865</v>
+        <v>30.93412869420101</v>
       </c>
       <c r="AU28" t="n">
-        <v>14.79582338394914</v>
+        <v>13.26045114943254</v>
       </c>
       <c r="AV28" t="n">
-        <v>14.41101334018358</v>
+        <v>7.043947968887629</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.039405005282809</v>
+        <v>14.15460687284215</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.004851302845728</v>
+        <v>17.02913201185587</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>19.69206630431082</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>19.29753101327823</v>
+        <v>5.881545147601481</v>
       </c>
       <c r="E29" t="n">
-        <v>27.33888873663579</v>
+        <v>19.78983943591565</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>18.23737332981183</v>
       </c>
       <c r="G29" t="n">
-        <v>15.32318941297292</v>
+        <v>91.17761309754727</v>
       </c>
       <c r="H29" t="n">
-        <v>7.523758976508932</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>157.30203154182</v>
+        <v>3.994001450063895</v>
       </c>
       <c r="J29" t="n">
-        <v>37.67542117043872</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>65.25976787243762</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>104.2943834657678</v>
+        <v>47.41512286545222</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2807922743896594</v>
+        <v>9.59142325432817</v>
       </c>
       <c r="N29" t="n">
-        <v>23.68809704397571</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>159.6590847391554</v>
+        <v>16.9214599435893</v>
       </c>
       <c r="P29" t="n">
-        <v>16.52021826623033</v>
+        <v>17.13656823872288</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.69595025975396</v>
+        <v>19.12431239802271</v>
       </c>
       <c r="R29" t="n">
-        <v>13.04031840322616</v>
+        <v>30.55620305233695</v>
       </c>
       <c r="S29" t="n">
-        <v>42.25766402698859</v>
+        <v>18.87156546580088</v>
       </c>
       <c r="T29" t="n">
-        <v>35.72478842603515</v>
+        <v>46.58412718102046</v>
       </c>
       <c r="U29" t="n">
-        <v>59.18524267594174</v>
+        <v>59.21737953192162</v>
       </c>
       <c r="V29" t="n">
-        <v>55.27852590312635</v>
+        <v>68.36836287179389</v>
       </c>
       <c r="W29" t="n">
-        <v>22.80031948599373</v>
+        <v>22.67595119018068</v>
       </c>
       <c r="X29" t="n">
-        <v>54.76017495600644</v>
+        <v>8.427821192322627</v>
       </c>
       <c r="Y29" t="n">
-        <v>22.22299379701841</v>
+        <v>86.2795550508243</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.667649106260416</v>
+        <v>52.98420073191856</v>
       </c>
       <c r="AA29" t="n">
-        <v>46.37468609870138</v>
+        <v>34.78452447851252</v>
       </c>
       <c r="AB29" t="n">
-        <v>43.16108509296831</v>
+        <v>33.87359123366785</v>
       </c>
       <c r="AC29" t="n">
-        <v>50.16180063084692</v>
+        <v>24.50473736005948</v>
       </c>
       <c r="AD29" t="n">
-        <v>51.99209768146358</v>
+        <v>27.79134962642444</v>
       </c>
       <c r="AE29" t="n">
-        <v>25.03307941435616</v>
+        <v>30.52628971269611</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.155919846433505</v>
+        <v>13.18786874219232</v>
       </c>
       <c r="AG29" t="n">
-        <v>18.34473731118371</v>
+        <v>6.603747455786256</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.05066274845073</v>
+        <v>31.8623237606408</v>
       </c>
       <c r="AI29" t="n">
-        <v>32.32580734510827</v>
+        <v>8.950950554332115</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14.40417261148345</v>
+        <v>6.239393854569821</v>
       </c>
       <c r="AK29" t="n">
-        <v>28.41306945288672</v>
+        <v>37.44586163790932</v>
       </c>
       <c r="AL29" t="n">
-        <v>77.79545111788988</v>
+        <v>3.78087564441418</v>
       </c>
       <c r="AM29" t="n">
-        <v>5.089797302052691</v>
+        <v>25.50350651737931</v>
       </c>
       <c r="AN29" t="n">
-        <v>19.60203246660523</v>
+        <v>23.70794749438021</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.761449220958126</v>
+        <v>39.69467702843907</v>
       </c>
       <c r="AP29" t="n">
-        <v>11.48773641888199</v>
+        <v>8.005868864101469</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3.527811112746252</v>
+        <v>3.861555265368902</v>
       </c>
       <c r="AR29" t="n">
-        <v>31.96971951223621</v>
+        <v>48.12134810733225</v>
       </c>
       <c r="AS29" t="n">
-        <v>26.4205458824488</v>
+        <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>33.58495351286557</v>
+        <v>37.36055028111916</v>
       </c>
       <c r="AU29" t="n">
-        <v>30.23163645326036</v>
+        <v>22.76751552226799</v>
       </c>
       <c r="AV29" t="n">
-        <v>21.52770210256168</v>
+        <v>19.23101785598955</v>
       </c>
       <c r="AW29" t="n">
-        <v>43.60774770706325</v>
+        <v>30.42016701985453</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>8.819462296271521</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>12.78577165980207</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>16.02176483726734</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>46.43245453021878</v>
+        <v>62.41158126245639</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.13643008348214</v>
       </c>
       <c r="H30" t="n">
-        <v>5.031360772888116</v>
+        <v>23.33101905228961</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.90758994993112</v>
+        <v>13.23444114804984</v>
       </c>
       <c r="K30" t="n">
-        <v>4.321374721672651</v>
+        <v>22.07702069156354</v>
       </c>
       <c r="L30" t="n">
-        <v>3.605701037514735</v>
+        <v>5.63296065037877</v>
       </c>
       <c r="M30" t="n">
-        <v>5.554224348728362</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26.88185304721744</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>66.16139092190768</v>
+        <v>22.76292533443025</v>
       </c>
       <c r="P30" t="n">
-        <v>17.4418437908631</v>
+        <v>33.39804436701243</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.29026847756739</v>
+        <v>3.559855786711674</v>
       </c>
       <c r="R30" t="n">
-        <v>30.62248475230915</v>
+        <v>27.34629132836223</v>
       </c>
       <c r="S30" t="n">
-        <v>22.35678069666971</v>
+        <v>28.31738075829519</v>
       </c>
       <c r="T30" t="n">
-        <v>53.98921181009518</v>
+        <v>23.87023193537443</v>
       </c>
       <c r="U30" t="n">
-        <v>17.1074690755182</v>
+        <v>8.926899986603004</v>
       </c>
       <c r="V30" t="n">
-        <v>45.75962344061156</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>29.53198564191955</v>
+        <v>16.47752762399363</v>
       </c>
       <c r="X30" t="n">
-        <v>10.22767164394961</v>
+        <v>4.804325433183651</v>
       </c>
       <c r="Y30" t="n">
-        <v>24.69467060782216</v>
+        <v>42.24720008556584</v>
       </c>
       <c r="Z30" t="n">
-        <v>36.88583998431678</v>
+        <v>65.17644982224272</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.06577960938486</v>
+        <v>3.670045496221881</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.02283768728388</v>
+        <v>2.300833198236169</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.60616824210079</v>
+        <v>13.73979578371484</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.40606946144779</v>
+        <v>15.67663374300737</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.24611987731361</v>
+        <v>11.5903269755974</v>
       </c>
       <c r="AF30" t="n">
-        <v>20.62434449543118</v>
+        <v>9.076107679462037</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.042792073523873</v>
+        <v>7.223955151302012</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.674803076913401</v>
+        <v>12.35228171662265</v>
       </c>
       <c r="AI30" t="n">
-        <v>14.57558151674254</v>
+        <v>29.31098124716915</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3.857817051425226</v>
+        <v>16.56418761431579</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.045079176113085</v>
+        <v>11.58204558797749</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.414394915091748</v>
+        <v>10.3851599257747</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.293009362411613</v>
+        <v>5.880746211874804</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.77277845219682</v>
+        <v>4.901771278061642</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.681106383040506</v>
+        <v>4.568861196252</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.021411315478461</v>
+        <v>13.49744323340148</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6.75891131220166</v>
+        <v>4.165193111747667</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.194029933158462</v>
+        <v>4.021575321961964</v>
       </c>
       <c r="AS30" t="n">
-        <v>4.511532516355832</v>
+        <v>1.907442534979658</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.992743221515343</v>
+        <v>3.291756676939399</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.397762246466224</v>
+        <v>0.4457678471718587</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.177730802895818</v>
+        <v>3.561822581923313</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.033206643997353</v>
+        <v>0.9896001092528196</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.217257548799652</v>
+        <v>2.911739634402854</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>7.975527158325373</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>14.87908281161411</v>
+        <v>52.56583339388273</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.24242517920212</v>
+        <v>1.758059170119234</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34.58819468165571</v>
       </c>
       <c r="I31" t="n">
-        <v>32.33963352062564</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.15032129293026</v>
+        <v>38.38062938290243</v>
       </c>
       <c r="K31" t="n">
-        <v>36.33130308784878</v>
+        <v>3.540079115923461</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.040927355562793</v>
       </c>
       <c r="M31" t="n">
-        <v>67.60859810706178</v>
+        <v>3.951540289129678</v>
       </c>
       <c r="N31" t="n">
-        <v>73.91883900580147</v>
+        <v>3.518598111385999</v>
       </c>
       <c r="O31" t="n">
-        <v>36.76570399268505</v>
+        <v>4.744796182490428</v>
       </c>
       <c r="P31" t="n">
-        <v>88.19634633762433</v>
+        <v>115.6224600926432</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.1868911055678</v>
+        <v>88.34102820085992</v>
       </c>
       <c r="R31" t="n">
-        <v>37.98575363755751</v>
+        <v>35.14395000046862</v>
       </c>
       <c r="S31" t="n">
-        <v>2.85509400423977</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>32.29577244083043</v>
+        <v>30.46643043815697</v>
       </c>
       <c r="U31" t="n">
-        <v>12.53319024800146</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>37.47714198626646</v>
+        <v>29.75432355591209</v>
       </c>
       <c r="W31" t="n">
-        <v>15.92269774510282</v>
+        <v>40.74422580058</v>
       </c>
       <c r="X31" t="n">
-        <v>5.443075302034845</v>
+        <v>37.23654472452377</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.572704608687447</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.01929993815322</v>
+        <v>14.43924362817964</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.56309278964354</v>
+        <v>6.466869666966881</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.37801520331147</v>
+        <v>7.381286957085232</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>20.96761495532527</v>
       </c>
       <c r="AD31" t="n">
-        <v>52.77344066555005</v>
+        <v>2.589606333999789</v>
       </c>
       <c r="AE31" t="n">
-        <v>4.652571891693228</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.643802550963722</v>
+        <v>11.70753758698767</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.41251597840447</v>
+        <v>8.643564100119933</v>
       </c>
       <c r="AH31" t="n">
-        <v>29.14644572872524</v>
+        <v>45.10898194188656</v>
       </c>
       <c r="AI31" t="n">
-        <v>9.719964489157897</v>
+        <v>25.01121469257658</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24.25150001730835</v>
+        <v>5.821488700693438</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>9.921073808503817</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.24152683456323</v>
+        <v>10.59628162598779</v>
       </c>
       <c r="AM31" t="n">
-        <v>11.90687733942151</v>
+        <v>73.5285182951999</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>19.67382686282212</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.210188770279086</v>
+        <v>5.997628034840536</v>
       </c>
       <c r="AP31" t="n">
-        <v>18.530645681048</v>
+        <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.4391644887220476</v>
+        <v>14.72981292692717</v>
       </c>
       <c r="AR31" t="n">
-        <v>12.91859121526603</v>
+        <v>14.15395932496439</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.259897280938915</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.006105841048693605</v>
+        <v>7.151018139749797</v>
       </c>
       <c r="AU31" t="n">
-        <v>4.59574839739007</v>
+        <v>7.777623547984886</v>
       </c>
       <c r="AV31" t="n">
-        <v>4.177825022616521</v>
+        <v>8.749582095584854</v>
       </c>
       <c r="AW31" t="n">
-        <v>11.15371536219088</v>
+        <v>3.126298373957508</v>
       </c>
       <c r="AX31" t="n">
-        <v>10.60534882356232</v>
+        <v>5.52275082522122</v>
       </c>
     </row>
   </sheetData>
